--- a/PyScraping/998407.O-anal.xlsx
+++ b/PyScraping/998407.O-anal.xlsx
@@ -774,10 +774,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'998407.O-anal'!$A$2:$A$198</c:f>
+              <c:f>'998407.O-anal'!$A$2:$A$201</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="197"/>
+                <c:ptCount val="200"/>
                 <c:pt idx="0">
                   <c:v>43010</c:v>
                 </c:pt>
@@ -1368,16 +1368,25 @@
                 </c:pt>
                 <c:pt idx="196">
                   <c:v>43301</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>43304</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>43305</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>43306</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'998407.O-anal'!$B$2:$B$198</c:f>
+              <c:f>'998407.O-anal'!$B$2:$B$201</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="197"/>
+                <c:ptCount val="200"/>
                 <c:pt idx="0">
                   <c:v>20400.509999999998</c:v>
                 </c:pt>
@@ -1968,6 +1977,15 @@
                 </c:pt>
                 <c:pt idx="196">
                   <c:v>22734.560000000001</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>22480.33</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>22555.05</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>22594.28</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2011,10 +2029,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'998407.O-anal'!$A$2:$A$198</c:f>
+              <c:f>'998407.O-anal'!$A$2:$A$201</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="197"/>
+                <c:ptCount val="200"/>
                 <c:pt idx="0">
                   <c:v>43010</c:v>
                 </c:pt>
@@ -2605,16 +2623,25 @@
                 </c:pt>
                 <c:pt idx="196">
                   <c:v>43301</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>43304</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>43305</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>43306</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'998407.O-anal'!$C$2:$C$198</c:f>
+              <c:f>'998407.O-anal'!$C$2:$C$201</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="197"/>
+                <c:ptCount val="200"/>
                 <c:pt idx="0">
                   <c:v>20411.330000000002</c:v>
                 </c:pt>
@@ -3205,6 +3232,15 @@
                 </c:pt>
                 <c:pt idx="196">
                   <c:v>22869.98</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>22507.17</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>22555.05</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>22645.66</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3243,10 +3279,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'998407.O-anal'!$A$2:$A$198</c:f>
+              <c:f>'998407.O-anal'!$A$2:$A$201</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="197"/>
+                <c:ptCount val="200"/>
                 <c:pt idx="0">
                   <c:v>43010</c:v>
                 </c:pt>
@@ -3837,16 +3873,25 @@
                 </c:pt>
                 <c:pt idx="196">
                   <c:v>43301</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>43304</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>43305</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>43306</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'998407.O-anal'!$D$2:$D$198</c:f>
+              <c:f>'998407.O-anal'!$D$2:$D$201</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="197"/>
+                <c:ptCount val="200"/>
                 <c:pt idx="0">
                   <c:v>20363.28</c:v>
                 </c:pt>
@@ -4437,6 +4482,15 @@
                 </c:pt>
                 <c:pt idx="196">
                   <c:v>22541.35</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>22341.87</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>22416.23</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>22547.14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4482,10 +4536,10 @@
           </c:dPt>
           <c:xVal>
             <c:numRef>
-              <c:f>'998407.O-anal'!$A$2:$A$198</c:f>
+              <c:f>'998407.O-anal'!$A$2:$A$201</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="197"/>
+                <c:ptCount val="200"/>
                 <c:pt idx="0">
                   <c:v>43010</c:v>
                 </c:pt>
@@ -5076,16 +5130,25 @@
                 </c:pt>
                 <c:pt idx="196">
                   <c:v>43301</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>43304</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>43305</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>43306</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'998407.O-anal'!$E$2:$E$198</c:f>
+              <c:f>'998407.O-anal'!$E$2:$E$201</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="197"/>
+                <c:ptCount val="200"/>
                 <c:pt idx="0">
                   <c:v>20400.78</c:v>
                 </c:pt>
@@ -5676,6 +5739,15 @@
                 </c:pt>
                 <c:pt idx="196">
                   <c:v>22697.88</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>22396.99</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>22510.48</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>22614.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5712,10 +5784,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'998407.O-anal'!$A$2:$A$198</c:f>
+              <c:f>'998407.O-anal'!$A$2:$A$201</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="197"/>
+                <c:ptCount val="200"/>
                 <c:pt idx="0">
                   <c:v>43010</c:v>
                 </c:pt>
@@ -6306,16 +6378,25 @@
                 </c:pt>
                 <c:pt idx="196">
                   <c:v>43301</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>43304</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>43305</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>43306</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'998407.O-anal'!$F$2:$F$198</c:f>
+              <c:f>'998407.O-anal'!$F$2:$F$201</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="197"/>
+                <c:ptCount val="200"/>
                 <c:pt idx="0">
                   <c:v>20400.8</c:v>
                 </c:pt>
@@ -6906,6 +6987,15 @@
                 </c:pt>
                 <c:pt idx="196">
                   <c:v>22710.3</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>22670.2</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>22632.799999999999</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>22596.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6945,10 +7035,10 @@
           </c:dPt>
           <c:xVal>
             <c:numRef>
-              <c:f>'998407.O-anal'!$A$2:$A$198</c:f>
+              <c:f>'998407.O-anal'!$A$2:$A$201</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="197"/>
+                <c:ptCount val="200"/>
                 <c:pt idx="0">
                   <c:v>43010</c:v>
                 </c:pt>
@@ -7539,16 +7629,25 @@
                 </c:pt>
                 <c:pt idx="196">
                   <c:v>43301</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>43304</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>43305</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>43306</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'998407.O-anal'!$G$2:$G$198</c:f>
+              <c:f>'998407.O-anal'!$G$2:$G$201</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="197"/>
+                <c:ptCount val="200"/>
                 <c:pt idx="0">
                   <c:v>20400.8</c:v>
                 </c:pt>
@@ -8139,6 +8238,15 @@
                 </c:pt>
                 <c:pt idx="196">
                   <c:v>22252.7</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>22238.6</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>22238.3</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>22251.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8173,10 +8281,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'998407.O-anal'!$A$2:$A$198</c:f>
+              <c:f>'998407.O-anal'!$A$2:$A$201</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="197"/>
+                <c:ptCount val="200"/>
                 <c:pt idx="0">
                   <c:v>43010</c:v>
                 </c:pt>
@@ -8767,16 +8875,25 @@
                 </c:pt>
                 <c:pt idx="196">
                   <c:v>43301</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>43304</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>43305</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>43306</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'998407.O-anal'!$H$2:$H$198</c:f>
+              <c:f>'998407.O-anal'!$H$2:$H$201</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="197"/>
+                <c:ptCount val="200"/>
                 <c:pt idx="0">
                   <c:v>20400.8</c:v>
                 </c:pt>
@@ -9367,6 +9484,15 @@
                 </c:pt>
                 <c:pt idx="196">
                   <c:v>22418.2</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>22415.9</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>22415</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>22414.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9401,10 +9527,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'998407.O-anal'!$A$2:$A$198</c:f>
+              <c:f>'998407.O-anal'!$A$2:$A$201</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="197"/>
+                <c:ptCount val="200"/>
                 <c:pt idx="0">
                   <c:v>43010</c:v>
                 </c:pt>
@@ -9995,16 +10121,25 @@
                 </c:pt>
                 <c:pt idx="196">
                   <c:v>43301</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>43304</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>43305</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>43306</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'998407.O-anal'!$I$2:$I$198</c:f>
+              <c:f>'998407.O-anal'!$I$2:$I$201</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="197"/>
+                <c:ptCount val="200"/>
                 <c:pt idx="0">
                   <c:v>20400.8</c:v>
                 </c:pt>
@@ -10595,6 +10730,15 @@
                 </c:pt>
                 <c:pt idx="196">
                   <c:v>22181.8</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>22186.7</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>22194.9</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>22204</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10630,10 +10774,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'998407.O-anal'!$A$2:$A$198</c:f>
+              <c:f>'998407.O-anal'!$A$2:$A$201</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="197"/>
+                <c:ptCount val="200"/>
                 <c:pt idx="0">
                   <c:v>43010</c:v>
                 </c:pt>
@@ -11224,16 +11368,25 @@
                 </c:pt>
                 <c:pt idx="196">
                   <c:v>43301</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>43304</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>43305</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>43306</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'998407.O-anal'!$K$2:$K$198</c:f>
+              <c:f>'998407.O-anal'!$K$2:$K$201</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="197"/>
+                <c:ptCount val="200"/>
                 <c:pt idx="0">
                   <c:v>20400.8</c:v>
                 </c:pt>
@@ -11824,6 +11977,15 @@
                 </c:pt>
                 <c:pt idx="196">
                   <c:v>21107.200000000001</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>21128.5</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>21128.9</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>21116.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11859,10 +12021,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'998407.O-anal'!$A$2:$A$198</c:f>
+              <c:f>'998407.O-anal'!$A$2:$A$201</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="197"/>
+                <c:ptCount val="200"/>
                 <c:pt idx="0">
                   <c:v>43010</c:v>
                 </c:pt>
@@ -12453,16 +12615,25 @@
                 </c:pt>
                 <c:pt idx="196">
                   <c:v>43301</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>43304</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>43305</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>43306</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'998407.O-anal'!$L$2:$L$198</c:f>
+              <c:f>'998407.O-anal'!$L$2:$L$201</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="197"/>
+                <c:ptCount val="200"/>
                 <c:pt idx="0">
                   <c:v>20400.8</c:v>
                 </c:pt>
@@ -13053,6 +13224,15 @@
                 </c:pt>
                 <c:pt idx="196">
                   <c:v>21489</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>21498.5</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>21498.7</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>21494.799999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13088,10 +13268,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'998407.O-anal'!$A$2:$A$198</c:f>
+              <c:f>'998407.O-anal'!$A$2:$A$201</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="197"/>
+                <c:ptCount val="200"/>
                 <c:pt idx="0">
                   <c:v>43010</c:v>
                 </c:pt>
@@ -13682,16 +13862,25 @@
                 </c:pt>
                 <c:pt idx="196">
                   <c:v>43301</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>43304</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>43305</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>43306</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'998407.O-anal'!$M$2:$M$198</c:f>
+              <c:f>'998407.O-anal'!$M$2:$M$201</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="197"/>
+                <c:ptCount val="200"/>
                 <c:pt idx="0">
                   <c:v>20400.8</c:v>
                 </c:pt>
@@ -14282,6 +14471,15 @@
                 </c:pt>
                 <c:pt idx="196">
                   <c:v>23016.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>22978.7</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>22977.9</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>23008.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14317,10 +14515,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'998407.O-anal'!$A$2:$A$198</c:f>
+              <c:f>'998407.O-anal'!$A$2:$A$201</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="197"/>
+                <c:ptCount val="200"/>
                 <c:pt idx="0">
                   <c:v>43010</c:v>
                 </c:pt>
@@ -14911,16 +15109,25 @@
                 </c:pt>
                 <c:pt idx="196">
                   <c:v>43301</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>43304</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>43305</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>43306</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'998407.O-anal'!$N$2:$N$198</c:f>
+              <c:f>'998407.O-anal'!$N$2:$N$201</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="197"/>
+                <c:ptCount val="200"/>
                 <c:pt idx="0">
                   <c:v>20400.8</c:v>
                 </c:pt>
@@ -15511,6 +15718,15 @@
                 </c:pt>
                 <c:pt idx="196">
                   <c:v>23398.2</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>23348.7</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>23347.7</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>23386.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15525,8 +15741,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="138946048"/>
-        <c:axId val="138947584"/>
+        <c:axId val="105185664"/>
+        <c:axId val="105187200"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -15550,10 +15766,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'998407.O-anal'!$A$2:$A$198</c:f>
+              <c:f>'998407.O-anal'!$A$2:$A$201</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="197"/>
+                <c:ptCount val="200"/>
                 <c:pt idx="0">
                   <c:v>43010</c:v>
                 </c:pt>
@@ -16144,16 +16360,25 @@
                 </c:pt>
                 <c:pt idx="196">
                   <c:v>43301</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>43304</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>43305</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>43306</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'998407.O-anal'!$O$2:$O$198</c:f>
+              <c:f>'998407.O-anal'!$O$2:$O$201</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="197"/>
+                <c:ptCount val="200"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -16744,6 +16969,15 @@
                 </c:pt>
                 <c:pt idx="196">
                   <c:v>22.7</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>35.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>49.5</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>58.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16758,11 +16992,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="138950912"/>
-        <c:axId val="138949376"/>
+        <c:axId val="105190528"/>
+        <c:axId val="105188736"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="138946048"/>
+        <c:axId val="105185664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="43040"/>
@@ -16773,13 +17007,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138947584"/>
+        <c:crossAx val="105187200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="60.6"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="138947584"/>
+        <c:axId val="105187200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="25000"/>
@@ -16798,12 +17032,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138946048"/>
+        <c:crossAx val="105185664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="138949376"/>
+        <c:axId val="105188736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1100"/>
@@ -16815,12 +17049,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138950912"/>
+        <c:crossAx val="105190528"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="138950912"/>
+        <c:axId val="105190528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16830,7 +17064,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138949376"/>
+        <c:crossAx val="105188736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -17176,10 +17410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O198"/>
+  <dimension ref="A1:O201"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:O198"/>
+    <sheetView topLeftCell="A184" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -26491,6 +26725,147 @@
       </c>
       <c r="O198">
         <v>22.7</v>
+      </c>
+    </row>
+    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A199" s="1">
+        <v>43304</v>
+      </c>
+      <c r="B199">
+        <v>22480.33</v>
+      </c>
+      <c r="C199">
+        <v>22507.17</v>
+      </c>
+      <c r="D199">
+        <v>22341.87</v>
+      </c>
+      <c r="E199">
+        <v>22396.99</v>
+      </c>
+      <c r="F199">
+        <v>22670.2</v>
+      </c>
+      <c r="G199">
+        <v>22238.6</v>
+      </c>
+      <c r="H199">
+        <v>22415.9</v>
+      </c>
+      <c r="I199">
+        <v>22186.7</v>
+      </c>
+      <c r="J199">
+        <v>370</v>
+      </c>
+      <c r="K199">
+        <v>21128.5</v>
+      </c>
+      <c r="L199">
+        <v>21498.5</v>
+      </c>
+      <c r="M199">
+        <v>22978.7</v>
+      </c>
+      <c r="N199">
+        <v>23348.7</v>
+      </c>
+      <c r="O199">
+        <v>35.799999999999997</v>
+      </c>
+    </row>
+    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A200" s="1">
+        <v>43305</v>
+      </c>
+      <c r="B200">
+        <v>22555.05</v>
+      </c>
+      <c r="C200">
+        <v>22555.05</v>
+      </c>
+      <c r="D200">
+        <v>22416.23</v>
+      </c>
+      <c r="E200">
+        <v>22510.48</v>
+      </c>
+      <c r="F200">
+        <v>22632.799999999999</v>
+      </c>
+      <c r="G200">
+        <v>22238.3</v>
+      </c>
+      <c r="H200">
+        <v>22415</v>
+      </c>
+      <c r="I200">
+        <v>22194.9</v>
+      </c>
+      <c r="J200">
+        <v>369.8</v>
+      </c>
+      <c r="K200">
+        <v>21128.9</v>
+      </c>
+      <c r="L200">
+        <v>21498.7</v>
+      </c>
+      <c r="M200">
+        <v>22977.9</v>
+      </c>
+      <c r="N200">
+        <v>23347.7</v>
+      </c>
+      <c r="O200">
+        <v>49.5</v>
+      </c>
+    </row>
+    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A201" s="1">
+        <v>43306</v>
+      </c>
+      <c r="B201">
+        <v>22594.28</v>
+      </c>
+      <c r="C201">
+        <v>22645.66</v>
+      </c>
+      <c r="D201">
+        <v>22547.14</v>
+      </c>
+      <c r="E201">
+        <v>22614.25</v>
+      </c>
+      <c r="F201">
+        <v>22596.9</v>
+      </c>
+      <c r="G201">
+        <v>22251.5</v>
+      </c>
+      <c r="H201">
+        <v>22414.7</v>
+      </c>
+      <c r="I201">
+        <v>22204</v>
+      </c>
+      <c r="J201">
+        <v>378.3</v>
+      </c>
+      <c r="K201">
+        <v>21116.5</v>
+      </c>
+      <c r="L201">
+        <v>21494.799999999999</v>
+      </c>
+      <c r="M201">
+        <v>23008.2</v>
+      </c>
+      <c r="N201">
+        <v>23386.5</v>
+      </c>
+      <c r="O201">
+        <v>58.8</v>
       </c>
     </row>
   </sheetData>
@@ -26509,7 +26884,7 @@
   <dimension ref="B1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>

--- a/PyScraping/998407.O-anal.xlsx
+++ b/PyScraping/998407.O-anal.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sin/Documents/Workspace/PyScraping/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10A07267-811C-9A43-AE98-D57BABD18414}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="368" windowWidth="12893" windowHeight="7050" activeTab="1"/>
+    <workbookView xWindow="420" yWindow="460" windowWidth="19400" windowHeight="13680" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="998407.O-anal" sheetId="1" r:id="rId1"/>
@@ -78,8 +84,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -727,12 +733,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
   <c:roundedCorners val="0"/>
@@ -786,7 +795,7 @@
             <c:numRef>
               <c:f>'998407.O-anal'!$A$2:$A$403</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="402"/>
                 <c:pt idx="0">
                   <c:v>42739</c:v>
@@ -3213,6 +3222,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FF13-FC4A-88D1-93DF9FD92EEA}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -3249,7 +3263,7 @@
             <c:numRef>
               <c:f>'998407.O-anal'!$A$2:$A$403</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="402"/>
                 <c:pt idx="0">
                   <c:v>42739</c:v>
@@ -5676,6 +5690,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FF13-FC4A-88D1-93DF9FD92EEA}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -5701,7 +5720,7 @@
             <c:numRef>
               <c:f>'998407.O-anal'!$A$2:$A$403</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="402"/>
                 <c:pt idx="0">
                   <c:v>42739</c:v>
@@ -8128,6 +8147,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FF13-FC4A-88D1-93DF9FD92EEA}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -8153,7 +8177,7 @@
             <c:numRef>
               <c:f>'998407.O-anal'!$A$2:$A$403</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="402"/>
                 <c:pt idx="0">
                   <c:v>42739</c:v>
@@ -10580,6 +10604,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-FF13-FC4A-88D1-93DF9FD92EEA}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -10607,7 +10636,7 @@
             <c:numRef>
               <c:f>'998407.O-anal'!$A$2:$A$403</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="402"/>
                 <c:pt idx="0">
                   <c:v>42739</c:v>
@@ -13034,6 +13063,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-FF13-FC4A-88D1-93DF9FD92EEA}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -13059,7 +13093,7 @@
             <c:numRef>
               <c:f>'998407.O-anal'!$A$2:$A$403</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="402"/>
                 <c:pt idx="0">
                   <c:v>42739</c:v>
@@ -15486,6 +15520,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-FF13-FC4A-88D1-93DF9FD92EEA}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
@@ -15511,7 +15550,7 @@
             <c:numRef>
               <c:f>'998407.O-anal'!$A$2:$A$403</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="402"/>
                 <c:pt idx="0">
                   <c:v>42739</c:v>
@@ -17938,6 +17977,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-FF13-FC4A-88D1-93DF9FD92EEA}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="8"/>
@@ -17963,7 +18007,7 @@
             <c:numRef>
               <c:f>'998407.O-anal'!$A$2:$A$403</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="402"/>
                 <c:pt idx="0">
                   <c:v>42739</c:v>
@@ -20390,6 +20434,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-FF13-FC4A-88D1-93DF9FD92EEA}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="10"/>
@@ -20421,7 +20470,7 @@
             <c:numRef>
               <c:f>'998407.O-anal'!$A$2:$A$403</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="402"/>
                 <c:pt idx="0">
                   <c:v>42739</c:v>
@@ -22848,6 +22897,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-FF13-FC4A-88D1-93DF9FD92EEA}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="11"/>
@@ -22879,7 +22933,7 @@
             <c:numRef>
               <c:f>'998407.O-anal'!$A$2:$A$403</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="402"/>
                 <c:pt idx="0">
                   <c:v>42739</c:v>
@@ -25306,6 +25360,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-FF13-FC4A-88D1-93DF9FD92EEA}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="12"/>
@@ -25337,7 +25396,7 @@
             <c:numRef>
               <c:f>'998407.O-anal'!$A$2:$A$403</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="402"/>
                 <c:pt idx="0">
                   <c:v>42739</c:v>
@@ -27764,6 +27823,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-FF13-FC4A-88D1-93DF9FD92EEA}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="13"/>
@@ -27795,7 +27859,7 @@
             <c:numRef>
               <c:f>'998407.O-anal'!$A$2:$A$403</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="402"/>
                 <c:pt idx="0">
                   <c:v>42739</c:v>
@@ -30222,6 +30286,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-FF13-FC4A-88D1-93DF9FD92EEA}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -30258,7 +30327,7 @@
             <c:numRef>
               <c:f>'998407.O-anal'!$A$2:$A$403</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="402"/>
                 <c:pt idx="0">
                   <c:v>42739</c:v>
@@ -32685,6 +32754,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-FF13-FC4A-88D1-93DF9FD92EEA}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -32701,11 +32775,12 @@
         <c:axId val="117548544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="42946"/>
+          <c:max val="43384"/>
+          <c:min val="43028"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -32766,17 +32841,17 @@
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="156701440"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -32808,7 +32883,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="グラフ 4"/>
+        <xdr:cNvPr id="5" name="グラフ 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -32829,7 +32910,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -32871,7 +32952,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -32904,9 +32985,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -32939,6 +33037,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -33114,19 +33229,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P403"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
       <selection sqref="A1:P403"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="11.73046875" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -33176,7 +33291,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16">
       <c r="A2" s="1">
         <v>42739</v>
       </c>
@@ -33226,7 +33341,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16">
       <c r="A3" s="1">
         <v>42740</v>
       </c>
@@ -33276,7 +33391,7 @@
         <v>99.9</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16">
       <c r="A4" s="1">
         <v>42741</v>
       </c>
@@ -33326,7 +33441,7 @@
         <v>99.5</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16">
       <c r="A5" s="1">
         <v>42745</v>
       </c>
@@ -33376,7 +33491,7 @@
         <v>98.7</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16">
       <c r="A6" s="1">
         <v>42746</v>
       </c>
@@ -33426,7 +33541,7 @@
         <v>97.5</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16">
       <c r="A7" s="1">
         <v>42747</v>
       </c>
@@ -33476,7 +33591,7 @@
         <v>95.6</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16">
       <c r="A8" s="1">
         <v>42748</v>
       </c>
@@ -33526,7 +33641,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16">
       <c r="A9" s="1">
         <v>42751</v>
       </c>
@@ -33576,7 +33691,7 @@
         <v>89.4</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16">
       <c r="A10" s="1">
         <v>42752</v>
       </c>
@@ -33626,7 +33741,7 @@
         <v>84.7</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16">
       <c r="A11" s="1">
         <v>42753</v>
       </c>
@@ -33676,7 +33791,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16">
       <c r="A12" s="1">
         <v>42754</v>
       </c>
@@ -33726,7 +33841,7 @@
         <v>72.2</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16">
       <c r="A13" s="1">
         <v>42755</v>
       </c>
@@ -33776,7 +33891,7 @@
         <v>65.7</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16">
       <c r="A14" s="1">
         <v>42758</v>
       </c>
@@ -33826,7 +33941,7 @@
         <v>56.1</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16">
       <c r="A15" s="1">
         <v>42759</v>
       </c>
@@ -33876,7 +33991,7 @@
         <v>44.3</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16">
       <c r="A16" s="1">
         <v>42760</v>
       </c>
@@ -33926,7 +34041,7 @@
         <v>32.5</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16">
       <c r="A17" s="1">
         <v>42761</v>
       </c>
@@ -33976,7 +34091,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16">
       <c r="A18" s="1">
         <v>42762</v>
       </c>
@@ -34026,7 +34141,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16">
       <c r="A19" s="1">
         <v>42765</v>
       </c>
@@ -34076,7 +34191,7 @@
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16">
       <c r="A20" s="1">
         <v>42766</v>
       </c>
@@ -34126,7 +34241,7 @@
         <v>-1.9</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16">
       <c r="A21" s="1">
         <v>42767</v>
       </c>
@@ -34176,7 +34291,7 @@
         <v>-15.8</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16">
       <c r="A22" s="1">
         <v>42768</v>
       </c>
@@ -34226,7 +34341,7 @@
         <v>-38.200000000000003</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16">
       <c r="A23" s="1">
         <v>42769</v>
       </c>
@@ -34276,7 +34391,7 @@
         <v>-32.6</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16">
       <c r="A24" s="1">
         <v>42772</v>
       </c>
@@ -34326,7 +34441,7 @@
         <v>-26.2</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16">
       <c r="A25" s="1">
         <v>42773</v>
       </c>
@@ -34376,7 +34491,7 @@
         <v>-21.6</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16">
       <c r="A26" s="1">
         <v>42774</v>
       </c>
@@ -34426,7 +34541,7 @@
         <v>-18.399999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16">
       <c r="A27" s="1">
         <v>42775</v>
       </c>
@@ -34476,7 +34591,7 @@
         <v>-15.6</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16">
       <c r="A28" s="1">
         <v>42776</v>
       </c>
@@ -34526,7 +34641,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16">
       <c r="A29" s="1">
         <v>42779</v>
       </c>
@@ -34576,7 +34691,7 @@
         <v>21.3</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16">
       <c r="A30" s="1">
         <v>42780</v>
       </c>
@@ -34626,7 +34741,7 @@
         <v>32.9</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16">
       <c r="A31" s="1">
         <v>42781</v>
       </c>
@@ -34676,7 +34791,7 @@
         <v>31.6</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16">
       <c r="A32" s="1">
         <v>42782</v>
       </c>
@@ -34726,7 +34841,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16">
       <c r="A33" s="1">
         <v>42783</v>
       </c>
@@ -34776,7 +34891,7 @@
         <v>30.1</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16">
       <c r="A34" s="1">
         <v>42786</v>
       </c>
@@ -34826,7 +34941,7 @@
         <v>32.5</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16">
       <c r="A35" s="1">
         <v>42787</v>
       </c>
@@ -34876,7 +34991,7 @@
         <v>26.8</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16">
       <c r="A36" s="1">
         <v>42788</v>
       </c>
@@ -34926,7 +35041,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16">
       <c r="A37" s="1">
         <v>42789</v>
       </c>
@@ -34976,7 +35091,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16">
       <c r="A38" s="1">
         <v>42790</v>
       </c>
@@ -35026,7 +35141,7 @@
         <v>32.700000000000003</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16">
       <c r="A39" s="1">
         <v>42793</v>
       </c>
@@ -35076,7 +35191,7 @@
         <v>46.5</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16">
       <c r="A40" s="1">
         <v>42794</v>
       </c>
@@ -35126,7 +35241,7 @@
         <v>50.6</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16">
       <c r="A41" s="1">
         <v>42795</v>
       </c>
@@ -35176,7 +35291,7 @@
         <v>51.3</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16">
       <c r="A42" s="1">
         <v>42796</v>
       </c>
@@ -35226,7 +35341,7 @@
         <v>58.8</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16">
       <c r="A43" s="1">
         <v>42797</v>
       </c>
@@ -35276,7 +35391,7 @@
         <v>59.7</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16">
       <c r="A44" s="1">
         <v>42800</v>
       </c>
@@ -35326,7 +35441,7 @@
         <v>53.9</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16">
       <c r="A45" s="1">
         <v>42801</v>
       </c>
@@ -35376,7 +35491,7 @@
         <v>41.8</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16">
       <c r="A46" s="1">
         <v>42802</v>
       </c>
@@ -35426,7 +35541,7 @@
         <v>26.9</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16">
       <c r="A47" s="1">
         <v>42803</v>
       </c>
@@ -35476,7 +35591,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16">
       <c r="A48" s="1">
         <v>42804</v>
       </c>
@@ -35526,7 +35641,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16">
       <c r="A49" s="1">
         <v>42807</v>
       </c>
@@ -35576,7 +35691,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16">
       <c r="A50" s="1">
         <v>42808</v>
       </c>
@@ -35626,7 +35741,7 @@
         <v>44.5</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16">
       <c r="A51" s="1">
         <v>42809</v>
       </c>
@@ -35676,7 +35791,7 @@
         <v>46.6</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16">
       <c r="A52" s="1">
         <v>42810</v>
       </c>
@@ -35726,7 +35841,7 @@
         <v>60.1</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16">
       <c r="A53" s="1">
         <v>42811</v>
       </c>
@@ -35776,7 +35891,7 @@
         <v>65.3</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16">
       <c r="A54" s="1">
         <v>42815</v>
       </c>
@@ -35826,7 +35941,7 @@
         <v>61.3</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16">
       <c r="A55" s="1">
         <v>42816</v>
       </c>
@@ -35876,7 +35991,7 @@
         <v>35.5</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16">
       <c r="A56" s="1">
         <v>42817</v>
       </c>
@@ -35926,7 +36041,7 @@
         <v>18.3</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16">
       <c r="A57" s="1">
         <v>42818</v>
       </c>
@@ -35976,7 +36091,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16">
       <c r="A58" s="1">
         <v>42821</v>
       </c>
@@ -36026,7 +36141,7 @@
         <v>-6.9</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16">
       <c r="A59" s="1">
         <v>42822</v>
       </c>
@@ -36076,7 +36191,7 @@
         <v>-17</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16">
       <c r="A60" s="1">
         <v>42823</v>
       </c>
@@ -36126,7 +36241,7 @@
         <v>-33.4</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16">
       <c r="A61" s="1">
         <v>42824</v>
       </c>
@@ -36176,7 +36291,7 @@
         <v>-53.1</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16">
       <c r="A62" s="1">
         <v>42825</v>
       </c>
@@ -36226,7 +36341,7 @@
         <v>-62.6</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16">
       <c r="A63" s="1">
         <v>42828</v>
       </c>
@@ -36276,7 +36391,7 @@
         <v>-67.7</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16">
       <c r="A64" s="1">
         <v>42829</v>
       </c>
@@ -36326,7 +36441,7 @@
         <v>-73.5</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16">
       <c r="A65" s="1">
         <v>42830</v>
       </c>
@@ -36376,7 +36491,7 @@
         <v>-79.7</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16">
       <c r="A66" s="1">
         <v>42831</v>
       </c>
@@ -36426,7 +36541,7 @@
         <v>-85.2</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16">
       <c r="A67" s="1">
         <v>42832</v>
       </c>
@@ -36476,7 +36591,7 @@
         <v>-91.2</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16">
       <c r="A68" s="1">
         <v>42835</v>
       </c>
@@ -36526,7 +36641,7 @@
         <v>-94.4</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16">
       <c r="A69" s="1">
         <v>42836</v>
       </c>
@@ -36576,7 +36691,7 @@
         <v>-94.2</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16">
       <c r="A70" s="1">
         <v>42837</v>
       </c>
@@ -36626,7 +36741,7 @@
         <v>-94.2</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16">
       <c r="A71" s="1">
         <v>42838</v>
       </c>
@@ -36676,7 +36791,7 @@
         <v>-94.2</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16">
       <c r="A72" s="1">
         <v>42839</v>
       </c>
@@ -36726,7 +36841,7 @@
         <v>-94.3</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16">
       <c r="A73" s="1">
         <v>42842</v>
       </c>
@@ -36776,7 +36891,7 @@
         <v>-94.2</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16">
       <c r="A74" s="1">
         <v>42843</v>
       </c>
@@ -36826,7 +36941,7 @@
         <v>-93.8</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16">
       <c r="A75" s="1">
         <v>42844</v>
       </c>
@@ -36876,7 +36991,7 @@
         <v>-92.5</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16">
       <c r="A76" s="1">
         <v>42845</v>
       </c>
@@ -36926,7 +37041,7 @@
         <v>-93</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16">
       <c r="A77" s="1">
         <v>42846</v>
       </c>
@@ -36976,7 +37091,7 @@
         <v>-89</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16">
       <c r="A78" s="1">
         <v>42849</v>
       </c>
@@ -37026,7 +37141,7 @@
         <v>-75.3</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16">
       <c r="A79" s="1">
         <v>42850</v>
       </c>
@@ -37076,7 +37191,7 @@
         <v>-53.9</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16">
       <c r="A80" s="1">
         <v>42851</v>
       </c>
@@ -37126,7 +37241,7 @@
         <v>-26.8</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16">
       <c r="A81" s="1">
         <v>42852</v>
       </c>
@@ -37176,7 +37291,7 @@
         <v>-2.2000000000000002</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16">
       <c r="A82" s="1">
         <v>42853</v>
       </c>
@@ -37226,7 +37341,7 @@
         <v>17.3</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16">
       <c r="A83" s="1">
         <v>42856</v>
       </c>
@@ -37276,7 +37391,7 @@
         <v>34.799999999999997</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16">
       <c r="A84" s="1">
         <v>42857</v>
       </c>
@@ -37326,7 +37441,7 @@
         <v>50.4</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16">
       <c r="A85" s="1">
         <v>42863</v>
       </c>
@@ -37376,7 +37491,7 @@
         <v>62.1</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:16">
       <c r="A86" s="1">
         <v>42864</v>
       </c>
@@ -37426,7 +37541,7 @@
         <v>72.099999999999994</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:16">
       <c r="A87" s="1">
         <v>42865</v>
       </c>
@@ -37476,7 +37591,7 @@
         <v>78.400000000000006</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:16">
       <c r="A88" s="1">
         <v>42866</v>
       </c>
@@ -37526,7 +37641,7 @@
         <v>85.2</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:16">
       <c r="A89" s="1">
         <v>42867</v>
       </c>
@@ -37576,7 +37691,7 @@
         <v>90.1</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:16">
       <c r="A90" s="1">
         <v>42870</v>
       </c>
@@ -37626,7 +37741,7 @@
         <v>93.4</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:16">
       <c r="A91" s="1">
         <v>42871</v>
       </c>
@@ -37676,7 +37791,7 @@
         <v>95.7</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:16">
       <c r="A92" s="1">
         <v>42872</v>
       </c>
@@ -37726,7 +37841,7 @@
         <v>92.9</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:16">
       <c r="A93" s="1">
         <v>42873</v>
       </c>
@@ -37776,7 +37891,7 @@
         <v>88.2</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:16">
       <c r="A94" s="1">
         <v>42874</v>
       </c>
@@ -37826,7 +37941,7 @@
         <v>82.5</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:16">
       <c r="A95" s="1">
         <v>42877</v>
       </c>
@@ -37876,7 +37991,7 @@
         <v>75.7</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:16">
       <c r="A96" s="1">
         <v>42878</v>
       </c>
@@ -37926,7 +38041,7 @@
         <v>67.900000000000006</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16">
       <c r="A97" s="1">
         <v>42879</v>
       </c>
@@ -37976,7 +38091,7 @@
         <v>59.1</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16">
       <c r="A98" s="1">
         <v>42880</v>
       </c>
@@ -38026,7 +38141,7 @@
         <v>49.2</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16">
       <c r="A99" s="1">
         <v>42881</v>
       </c>
@@ -38076,7 +38191,7 @@
         <v>37.9</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16">
       <c r="A100" s="1">
         <v>42884</v>
       </c>
@@ -38126,7 +38241,7 @@
         <v>25.2</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16">
       <c r="A101" s="1">
         <v>42885</v>
       </c>
@@ -38176,7 +38291,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:16">
       <c r="A102" s="1">
         <v>42886</v>
       </c>
@@ -38226,7 +38341,7 @@
         <v>-6.2</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:16">
       <c r="A103" s="1">
         <v>42887</v>
       </c>
@@ -38276,7 +38391,7 @@
         <v>-17.7</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:16">
       <c r="A104" s="1">
         <v>42888</v>
       </c>
@@ -38326,7 +38441,7 @@
         <v>-17.7</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:16">
       <c r="A105" s="1">
         <v>42891</v>
       </c>
@@ -38376,7 +38491,7 @@
         <v>-17.8</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16">
       <c r="A106" s="1">
         <v>42892</v>
       </c>
@@ -38426,7 +38541,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16">
       <c r="A107" s="1">
         <v>42893</v>
       </c>
@@ -38476,7 +38591,7 @@
         <v>17.7</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16">
       <c r="A108" s="1">
         <v>42894</v>
       </c>
@@ -38526,7 +38641,7 @@
         <v>28.6</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:16">
       <c r="A109" s="1">
         <v>42895</v>
       </c>
@@ -38576,7 +38691,7 @@
         <v>45.6</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:16">
       <c r="A110" s="1">
         <v>42898</v>
       </c>
@@ -38626,7 +38741,7 @@
         <v>53.8</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:16">
       <c r="A111" s="1">
         <v>42899</v>
       </c>
@@ -38676,7 +38791,7 @@
         <v>59.2</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:16">
       <c r="A112" s="1">
         <v>42900</v>
       </c>
@@ -38726,7 +38841,7 @@
         <v>71.900000000000006</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:16">
       <c r="A113" s="1">
         <v>42901</v>
       </c>
@@ -38776,7 +38891,7 @@
         <v>71.900000000000006</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:16">
       <c r="A114" s="1">
         <v>42902</v>
       </c>
@@ -38826,7 +38941,7 @@
         <v>66.900000000000006</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:16">
       <c r="A115" s="1">
         <v>42905</v>
       </c>
@@ -38876,7 +38991,7 @@
         <v>64.2</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:16">
       <c r="A116" s="1">
         <v>42906</v>
       </c>
@@ -38926,7 +39041,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:16">
       <c r="A117" s="1">
         <v>42907</v>
       </c>
@@ -38976,7 +39091,7 @@
         <v>62.6</v>
       </c>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:16">
       <c r="A118" s="1">
         <v>42908</v>
       </c>
@@ -39026,7 +39141,7 @@
         <v>60.5</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:16">
       <c r="A119" s="1">
         <v>42909</v>
       </c>
@@ -39076,7 +39191,7 @@
         <v>57.4</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:16">
       <c r="A120" s="1">
         <v>42912</v>
       </c>
@@ -39126,7 +39241,7 @@
         <v>53.6</v>
       </c>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:16">
       <c r="A121" s="1">
         <v>42913</v>
       </c>
@@ -39176,7 +39291,7 @@
         <v>53.4</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:16">
       <c r="A122" s="1">
         <v>42914</v>
       </c>
@@ -39226,7 +39341,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:16">
       <c r="A123" s="1">
         <v>42915</v>
       </c>
@@ -39276,7 +39391,7 @@
         <v>45.6</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:16">
       <c r="A124" s="1">
         <v>42916</v>
       </c>
@@ -39326,7 +39441,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:16">
       <c r="A125" s="1">
         <v>42919</v>
       </c>
@@ -39376,7 +39491,7 @@
         <v>47.4</v>
       </c>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:16">
       <c r="A126" s="1">
         <v>42920</v>
       </c>
@@ -39426,7 +39541,7 @@
         <v>60.3</v>
       </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:16">
       <c r="A127" s="1">
         <v>42921</v>
       </c>
@@ -39476,7 +39591,7 @@
         <v>56.6</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:16">
       <c r="A128" s="1">
         <v>42922</v>
       </c>
@@ -39526,7 +39641,7 @@
         <v>45.7</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:16">
       <c r="A129" s="1">
         <v>42923</v>
       </c>
@@ -39576,7 +39691,7 @@
         <v>29.4</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:16">
       <c r="A130" s="1">
         <v>42926</v>
       </c>
@@ -39626,7 +39741,7 @@
         <v>25.1</v>
       </c>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:16">
       <c r="A131" s="1">
         <v>42927</v>
       </c>
@@ -39676,7 +39791,7 @@
         <v>21.6</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:16">
       <c r="A132" s="1">
         <v>42928</v>
       </c>
@@ -39726,7 +39841,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:16">
       <c r="A133" s="1">
         <v>42929</v>
       </c>
@@ -39776,7 +39891,7 @@
         <v>-5.3</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:16">
       <c r="A134" s="1">
         <v>42930</v>
       </c>
@@ -39826,7 +39941,7 @@
         <v>-18.7</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:16">
       <c r="A135" s="1">
         <v>42934</v>
       </c>
@@ -39876,7 +39991,7 @@
         <v>-42.3</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:16">
       <c r="A136" s="1">
         <v>42935</v>
       </c>
@@ -39926,7 +40041,7 @@
         <v>-57.5</v>
       </c>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:16">
       <c r="A137" s="1">
         <v>42936</v>
       </c>
@@ -39976,7 +40091,7 @@
         <v>-37.1</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:16">
       <c r="A138" s="1">
         <v>42937</v>
       </c>
@@ -40026,7 +40141,7 @@
         <v>-31.8</v>
       </c>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:16">
       <c r="A139" s="1">
         <v>42940</v>
       </c>
@@ -40076,7 +40191,7 @@
         <v>-38.700000000000003</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:16">
       <c r="A140" s="1">
         <v>42941</v>
       </c>
@@ -40126,7 +40241,7 @@
         <v>-42.1</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:16">
       <c r="A141" s="1">
         <v>42942</v>
       </c>
@@ -40176,7 +40291,7 @@
         <v>-34.799999999999997</v>
       </c>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:16">
       <c r="A142" s="1">
         <v>42943</v>
       </c>
@@ -40226,7 +40341,7 @@
         <v>-22.2</v>
       </c>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:16">
       <c r="A143" s="1">
         <v>42944</v>
       </c>
@@ -40276,7 +40391,7 @@
         <v>-23.2</v>
       </c>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:16">
       <c r="A144" s="1">
         <v>42947</v>
       </c>
@@ -40326,7 +40441,7 @@
         <v>-23.2</v>
       </c>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:16">
       <c r="A145" s="1">
         <v>42948</v>
       </c>
@@ -40376,7 +40491,7 @@
         <v>-33.1</v>
       </c>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:16">
       <c r="A146" s="1">
         <v>42949</v>
       </c>
@@ -40426,7 +40541,7 @@
         <v>-29.9</v>
       </c>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:16">
       <c r="A147" s="1">
         <v>42950</v>
       </c>
@@ -40476,7 +40591,7 @@
         <v>-32.6</v>
       </c>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:16">
       <c r="A148" s="1">
         <v>42951</v>
       </c>
@@ -40526,7 +40641,7 @@
         <v>-35.200000000000003</v>
       </c>
     </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:16">
       <c r="A149" s="1">
         <v>42954</v>
       </c>
@@ -40576,7 +40691,7 @@
         <v>-38.6</v>
       </c>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:16">
       <c r="A150" s="1">
         <v>42955</v>
       </c>
@@ -40626,7 +40741,7 @@
         <v>-58.6</v>
       </c>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:16">
       <c r="A151" s="1">
         <v>42956</v>
       </c>
@@ -40676,7 +40791,7 @@
         <v>-61.8</v>
       </c>
     </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:16">
       <c r="A152" s="1">
         <v>42957</v>
       </c>
@@ -40726,7 +40841,7 @@
         <v>-61.8</v>
       </c>
     </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:16">
       <c r="A153" s="1">
         <v>42961</v>
       </c>
@@ -40776,7 +40891,7 @@
         <v>-63.6</v>
       </c>
     </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:16">
       <c r="A154" s="1">
         <v>42962</v>
       </c>
@@ -40826,7 +40941,7 @@
         <v>-63.5</v>
       </c>
     </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:16">
       <c r="A155" s="1">
         <v>42963</v>
       </c>
@@ -40876,7 +40991,7 @@
         <v>-63.6</v>
       </c>
     </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:16">
       <c r="A156" s="1">
         <v>42964</v>
       </c>
@@ -40926,7 +41041,7 @@
         <v>-70.5</v>
       </c>
     </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:16">
       <c r="A157" s="1">
         <v>42965</v>
       </c>
@@ -40976,7 +41091,7 @@
         <v>-76.8</v>
       </c>
     </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:16">
       <c r="A158" s="1">
         <v>42968</v>
       </c>
@@ -41026,7 +41141,7 @@
         <v>-76.8</v>
       </c>
     </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:16">
       <c r="A159" s="1">
         <v>42969</v>
       </c>
@@ -41076,7 +41191,7 @@
         <v>-76.8</v>
       </c>
     </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:16">
       <c r="A160" s="1">
         <v>42970</v>
       </c>
@@ -41126,7 +41241,7 @@
         <v>-82.5</v>
       </c>
     </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:16">
       <c r="A161" s="1">
         <v>42971</v>
       </c>
@@ -41176,7 +41291,7 @@
         <v>-88.1</v>
       </c>
     </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:16">
       <c r="A162" s="1">
         <v>42972</v>
       </c>
@@ -41226,7 +41341,7 @@
         <v>-88.6</v>
       </c>
     </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:16">
       <c r="A163" s="1">
         <v>42975</v>
       </c>
@@ -41276,7 +41391,7 @@
         <v>-87.3</v>
       </c>
     </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:16">
       <c r="A164" s="1">
         <v>42976</v>
       </c>
@@ -41326,7 +41441,7 @@
         <v>-89.7</v>
       </c>
     </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:16">
       <c r="A165" s="1">
         <v>42977</v>
       </c>
@@ -41376,7 +41491,7 @@
         <v>-87.8</v>
       </c>
     </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:16">
       <c r="A166" s="1">
         <v>42978</v>
       </c>
@@ -41426,7 +41541,7 @@
         <v>-81.8</v>
       </c>
     </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:16">
       <c r="A167" s="1">
         <v>42979</v>
       </c>
@@ -41476,7 +41591,7 @@
         <v>-72.900000000000006</v>
       </c>
     </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:16">
       <c r="A168" s="1">
         <v>42982</v>
       </c>
@@ -41526,7 +41641,7 @@
         <v>-64.900000000000006</v>
       </c>
     </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:16">
       <c r="A169" s="1">
         <v>42983</v>
       </c>
@@ -41576,7 +41691,7 @@
         <v>-62.3</v>
       </c>
     </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:16">
       <c r="A170" s="1">
         <v>42984</v>
       </c>
@@ -41626,7 +41741,7 @@
         <v>-61.2</v>
       </c>
     </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:16">
       <c r="A171" s="1">
         <v>42985</v>
       </c>
@@ -41676,7 +41791,7 @@
         <v>-55.3</v>
       </c>
     </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:16">
       <c r="A172" s="1">
         <v>42986</v>
       </c>
@@ -41726,7 +41841,7 @@
         <v>-55.7</v>
       </c>
     </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:16">
       <c r="A173" s="1">
         <v>42989</v>
       </c>
@@ -41776,7 +41891,7 @@
         <v>-37.4</v>
       </c>
     </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:16">
       <c r="A174" s="1">
         <v>42990</v>
       </c>
@@ -41826,7 +41941,7 @@
         <v>-17</v>
       </c>
     </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:16">
       <c r="A175" s="1">
         <v>42991</v>
       </c>
@@ -41876,7 +41991,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:16">
       <c r="A176" s="1">
         <v>42992</v>
       </c>
@@ -41926,7 +42041,7 @@
         <v>29.7</v>
       </c>
     </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:16">
       <c r="A177" s="1">
         <v>42993</v>
       </c>
@@ -41976,7 +42091,7 @@
         <v>49.6</v>
       </c>
     </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:16">
       <c r="A178" s="1">
         <v>42997</v>
       </c>
@@ -42026,7 +42141,7 @@
         <v>60.3</v>
       </c>
     </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:16">
       <c r="A179" s="1">
         <v>42998</v>
       </c>
@@ -42076,7 +42191,7 @@
         <v>66.400000000000006</v>
       </c>
     </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:16">
       <c r="A180" s="1">
         <v>42999</v>
       </c>
@@ -42126,7 +42241,7 @@
         <v>70.400000000000006</v>
       </c>
     </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:16">
       <c r="A181" s="1">
         <v>43000</v>
       </c>
@@ -42176,7 +42291,7 @@
         <v>75.7</v>
       </c>
     </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:16">
       <c r="A182" s="1">
         <v>43003</v>
       </c>
@@ -42226,7 +42341,7 @@
         <v>77.099999999999994</v>
       </c>
     </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:16">
       <c r="A183" s="1">
         <v>43004</v>
       </c>
@@ -42276,7 +42391,7 @@
         <v>81.400000000000006</v>
       </c>
     </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:16">
       <c r="A184" s="1">
         <v>43005</v>
       </c>
@@ -42326,7 +42441,7 @@
         <v>82.7</v>
       </c>
     </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:16">
       <c r="A185" s="1">
         <v>43006</v>
       </c>
@@ -42376,7 +42491,7 @@
         <v>84.2</v>
       </c>
     </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:16">
       <c r="A186" s="1">
         <v>43007</v>
       </c>
@@ -42426,7 +42541,7 @@
         <v>86.4</v>
       </c>
     </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:16">
       <c r="A187" s="1">
         <v>43010</v>
       </c>
@@ -42476,7 +42591,7 @@
         <v>89.9</v>
       </c>
     </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:16">
       <c r="A188" s="1">
         <v>43011</v>
       </c>
@@ -42526,7 +42641,7 @@
         <v>92.6</v>
       </c>
     </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:16">
       <c r="A189" s="1">
         <v>43012</v>
       </c>
@@ -42576,7 +42691,7 @@
         <v>93.9</v>
       </c>
     </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:16">
       <c r="A190" s="1">
         <v>43013</v>
       </c>
@@ -42626,7 +42741,7 @@
         <v>94.4</v>
       </c>
     </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:16">
       <c r="A191" s="1">
         <v>43014</v>
       </c>
@@ -42676,7 +42791,7 @@
         <v>94.7</v>
       </c>
     </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:16">
       <c r="A192" s="1">
         <v>43018</v>
       </c>
@@ -42726,7 +42841,7 @@
         <v>94.8</v>
       </c>
     </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:16">
       <c r="A193" s="1">
         <v>43019</v>
       </c>
@@ -42776,7 +42891,7 @@
         <v>94.8</v>
       </c>
     </row>
-    <row r="194" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:16">
       <c r="A194" s="1">
         <v>43020</v>
       </c>
@@ -42826,7 +42941,7 @@
         <v>94.8</v>
       </c>
     </row>
-    <row r="195" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:16">
       <c r="A195" s="1">
         <v>43021</v>
       </c>
@@ -42876,7 +42991,7 @@
         <v>94.8</v>
       </c>
     </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:16">
       <c r="A196" s="1">
         <v>43024</v>
       </c>
@@ -42926,7 +43041,7 @@
         <v>94.9</v>
       </c>
     </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:16">
       <c r="A197" s="1">
         <v>43025</v>
       </c>
@@ -42976,7 +43091,7 @@
         <v>94.9</v>
       </c>
     </row>
-    <row r="198" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:16">
       <c r="A198" s="1">
         <v>43026</v>
       </c>
@@ -43026,7 +43141,7 @@
         <v>94.9</v>
       </c>
     </row>
-    <row r="199" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:16">
       <c r="A199" s="1">
         <v>43027</v>
       </c>
@@ -43076,7 +43191,7 @@
         <v>96.1</v>
       </c>
     </row>
-    <row r="200" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:16">
       <c r="A200" s="1">
         <v>43028</v>
       </c>
@@ -43126,7 +43241,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:16">
       <c r="A201" s="1">
         <v>43031</v>
       </c>
@@ -43176,7 +43291,7 @@
         <v>98.1</v>
       </c>
     </row>
-    <row r="202" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:16">
       <c r="A202" s="1">
         <v>43032</v>
       </c>
@@ -43226,7 +43341,7 @@
         <v>98.4</v>
       </c>
     </row>
-    <row r="203" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:16">
       <c r="A203" s="1">
         <v>43033</v>
       </c>
@@ -43276,7 +43391,7 @@
         <v>99.6</v>
       </c>
     </row>
-    <row r="204" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:16">
       <c r="A204" s="1">
         <v>43034</v>
       </c>
@@ -43326,7 +43441,7 @@
         <v>99.5</v>
       </c>
     </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:16">
       <c r="A205" s="1">
         <v>43035</v>
       </c>
@@ -43376,7 +43491,7 @@
         <v>99.5</v>
       </c>
     </row>
-    <row r="206" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:16">
       <c r="A206" s="1">
         <v>43038</v>
       </c>
@@ -43426,7 +43541,7 @@
         <v>99.6</v>
       </c>
     </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:16">
       <c r="A207" s="1">
         <v>43039</v>
       </c>
@@ -43476,7 +43591,7 @@
         <v>99.5</v>
       </c>
     </row>
-    <row r="208" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:16">
       <c r="A208" s="1">
         <v>43040</v>
       </c>
@@ -43526,7 +43641,7 @@
         <v>99.5</v>
       </c>
     </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:16">
       <c r="A209" s="1">
         <v>43041</v>
       </c>
@@ -43576,7 +43691,7 @@
         <v>99.5</v>
       </c>
     </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:16">
       <c r="A210" s="1">
         <v>43045</v>
       </c>
@@ -43626,7 +43741,7 @@
         <v>99.5</v>
       </c>
     </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:16">
       <c r="A211" s="1">
         <v>43046</v>
       </c>
@@ -43676,7 +43791,7 @@
         <v>99.5</v>
       </c>
     </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:16">
       <c r="A212" s="1">
         <v>43047</v>
       </c>
@@ -43726,7 +43841,7 @@
         <v>99.4</v>
       </c>
     </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:16">
       <c r="A213" s="1">
         <v>43048</v>
       </c>
@@ -43776,7 +43891,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="214" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:16">
       <c r="A214" s="1">
         <v>43049</v>
       </c>
@@ -43826,7 +43941,7 @@
         <v>98.2</v>
       </c>
     </row>
-    <row r="215" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:16">
       <c r="A215" s="1">
         <v>43052</v>
       </c>
@@ -43876,7 +43991,7 @@
         <v>94.5</v>
       </c>
     </row>
-    <row r="216" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:16">
       <c r="A216" s="1">
         <v>43053</v>
       </c>
@@ -43926,7 +44041,7 @@
         <v>89.9</v>
       </c>
     </row>
-    <row r="217" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:16">
       <c r="A217" s="1">
         <v>43054</v>
       </c>
@@ -43976,7 +44091,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="218" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:16">
       <c r="A218" s="1">
         <v>43055</v>
       </c>
@@ -44026,7 +44141,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="219" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:16">
       <c r="A219" s="1">
         <v>43056</v>
       </c>
@@ -44076,7 +44191,7 @@
         <v>69.7</v>
       </c>
     </row>
-    <row r="220" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:16">
       <c r="A220" s="1">
         <v>43059</v>
       </c>
@@ -44126,7 +44241,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="221" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:16">
       <c r="A221" s="1">
         <v>43060</v>
       </c>
@@ -44176,7 +44291,7 @@
         <v>50.9</v>
       </c>
     </row>
-    <row r="222" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:16">
       <c r="A222" s="1">
         <v>43061</v>
       </c>
@@ -44226,7 +44341,7 @@
         <v>42.7</v>
       </c>
     </row>
-    <row r="223" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:16">
       <c r="A223" s="1">
         <v>43063</v>
       </c>
@@ -44276,7 +44391,7 @@
         <v>37.700000000000003</v>
       </c>
     </row>
-    <row r="224" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:16">
       <c r="A224" s="1">
         <v>43066</v>
       </c>
@@ -44326,7 +44441,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="225" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:16">
       <c r="A225" s="1">
         <v>43067</v>
       </c>
@@ -44376,7 +44491,7 @@
         <v>16.2</v>
       </c>
     </row>
-    <row r="226" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:16">
       <c r="A226" s="1">
         <v>43068</v>
       </c>
@@ -44426,7 +44541,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="227" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:16">
       <c r="A227" s="1">
         <v>43069</v>
       </c>
@@ -44476,7 +44591,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="228" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:16">
       <c r="A228" s="1">
         <v>43070</v>
       </c>
@@ -44526,7 +44641,7 @@
         <v>-2.7</v>
       </c>
     </row>
-    <row r="229" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:16">
       <c r="A229" s="1">
         <v>43073</v>
       </c>
@@ -44576,7 +44691,7 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="230" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:16">
       <c r="A230" s="1">
         <v>43074</v>
       </c>
@@ -44626,7 +44741,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="231" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:16">
       <c r="A231" s="1">
         <v>43075</v>
       </c>
@@ -44676,7 +44791,7 @@
         <v>-9.5</v>
       </c>
     </row>
-    <row r="232" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:16">
       <c r="A232" s="1">
         <v>43076</v>
       </c>
@@ -44726,7 +44841,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="233" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:16">
       <c r="A233" s="1">
         <v>43077</v>
       </c>
@@ -44776,7 +44891,7 @@
         <v>29.4</v>
       </c>
     </row>
-    <row r="234" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:16">
       <c r="A234" s="1">
         <v>43080</v>
       </c>
@@ -44826,7 +44941,7 @@
         <v>56.6</v>
       </c>
     </row>
-    <row r="235" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:16">
       <c r="A235" s="1">
         <v>43081</v>
       </c>
@@ -44876,7 +44991,7 @@
         <v>73.2</v>
       </c>
     </row>
-    <row r="236" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:16">
       <c r="A236" s="1">
         <v>43082</v>
       </c>
@@ -44926,7 +45041,7 @@
         <v>74.900000000000006</v>
       </c>
     </row>
-    <row r="237" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:16">
       <c r="A237" s="1">
         <v>43083</v>
       </c>
@@ -44976,7 +45091,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="238" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:16">
       <c r="A238" s="1">
         <v>43084</v>
       </c>
@@ -45026,7 +45141,7 @@
         <v>64.5</v>
       </c>
     </row>
-    <row r="239" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:16">
       <c r="A239" s="1">
         <v>43087</v>
       </c>
@@ -45076,7 +45191,7 @@
         <v>65.8</v>
       </c>
     </row>
-    <row r="240" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:16">
       <c r="A240" s="1">
         <v>43088</v>
       </c>
@@ -45126,7 +45241,7 @@
         <v>66.599999999999994</v>
       </c>
     </row>
-    <row r="241" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:16">
       <c r="A241" s="1">
         <v>43089</v>
       </c>
@@ -45176,7 +45291,7 @@
         <v>66.900000000000006</v>
       </c>
     </row>
-    <row r="242" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:16">
       <c r="A242" s="1">
         <v>43090</v>
       </c>
@@ -45226,7 +45341,7 @@
         <v>65.5</v>
       </c>
     </row>
-    <row r="243" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:16">
       <c r="A243" s="1">
         <v>43091</v>
       </c>
@@ -45276,7 +45391,7 @@
         <v>67.400000000000006</v>
       </c>
     </row>
-    <row r="244" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:16">
       <c r="A244" s="1">
         <v>43094</v>
       </c>
@@ -45326,7 +45441,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="245" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:16">
       <c r="A245" s="1">
         <v>43095</v>
       </c>
@@ -45376,7 +45491,7 @@
         <v>68.400000000000006</v>
       </c>
     </row>
-    <row r="246" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:16">
       <c r="A246" s="1">
         <v>43096</v>
       </c>
@@ -45426,7 +45541,7 @@
         <v>67.400000000000006</v>
       </c>
     </row>
-    <row r="247" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:16">
       <c r="A247" s="1">
         <v>43097</v>
       </c>
@@ -45476,7 +45591,7 @@
         <v>58.2</v>
       </c>
     </row>
-    <row r="248" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:16">
       <c r="A248" s="1">
         <v>43098</v>
       </c>
@@ -45526,7 +45641,7 @@
         <v>48.8</v>
       </c>
     </row>
-    <row r="249" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:16">
       <c r="A249" s="1">
         <v>43104</v>
       </c>
@@ -45576,7 +45691,7 @@
         <v>59.4</v>
       </c>
     </row>
-    <row r="250" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:16">
       <c r="A250" s="1">
         <v>43105</v>
       </c>
@@ -45626,7 +45741,7 @@
         <v>62.3</v>
       </c>
     </row>
-    <row r="251" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:16">
       <c r="A251" s="1">
         <v>43109</v>
       </c>
@@ -45676,7 +45791,7 @@
         <v>63.8</v>
       </c>
     </row>
-    <row r="252" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:16">
       <c r="A252" s="1">
         <v>43110</v>
       </c>
@@ -45726,7 +45841,7 @@
         <v>63.6</v>
       </c>
     </row>
-    <row r="253" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:16">
       <c r="A253" s="1">
         <v>43111</v>
       </c>
@@ -45776,7 +45891,7 @@
         <v>62.9</v>
       </c>
     </row>
-    <row r="254" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:16">
       <c r="A254" s="1">
         <v>43112</v>
       </c>
@@ -45826,7 +45941,7 @@
         <v>66.900000000000006</v>
       </c>
     </row>
-    <row r="255" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:16">
       <c r="A255" s="1">
         <v>43115</v>
       </c>
@@ -45876,7 +45991,7 @@
         <v>78.3</v>
       </c>
     </row>
-    <row r="256" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:16">
       <c r="A256" s="1">
         <v>43116</v>
       </c>
@@ -45926,7 +46041,7 @@
         <v>83.2</v>
       </c>
     </row>
-    <row r="257" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:16">
       <c r="A257" s="1">
         <v>43117</v>
       </c>
@@ -45976,7 +46091,7 @@
         <v>83.5</v>
       </c>
     </row>
-    <row r="258" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:16">
       <c r="A258" s="1">
         <v>43118</v>
       </c>
@@ -46026,7 +46141,7 @@
         <v>81.599999999999994</v>
       </c>
     </row>
-    <row r="259" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:16">
       <c r="A259" s="1">
         <v>43119</v>
       </c>
@@ -46076,7 +46191,7 @@
         <v>79.900000000000006</v>
       </c>
     </row>
-    <row r="260" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:16">
       <c r="A260" s="1">
         <v>43122</v>
       </c>
@@ -46126,7 +46241,7 @@
         <v>81.599999999999994</v>
       </c>
     </row>
-    <row r="261" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:16">
       <c r="A261" s="1">
         <v>43123</v>
       </c>
@@ -46176,7 +46291,7 @@
         <v>83.8</v>
       </c>
     </row>
-    <row r="262" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:16">
       <c r="A262" s="1">
         <v>43124</v>
       </c>
@@ -46226,7 +46341,7 @@
         <v>84.7</v>
       </c>
     </row>
-    <row r="263" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:16">
       <c r="A263" s="1">
         <v>43125</v>
       </c>
@@ -46276,7 +46391,7 @@
         <v>75.5</v>
       </c>
     </row>
-    <row r="264" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:16">
       <c r="A264" s="1">
         <v>43126</v>
       </c>
@@ -46326,7 +46441,7 @@
         <v>63.2</v>
       </c>
     </row>
-    <row r="265" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:16">
       <c r="A265" s="1">
         <v>43129</v>
       </c>
@@ -46376,7 +46491,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="266" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:16">
       <c r="A266" s="1">
         <v>43130</v>
       </c>
@@ -46426,7 +46541,7 @@
         <v>29.7</v>
       </c>
     </row>
-    <row r="267" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:16">
       <c r="A267" s="1">
         <v>43131</v>
       </c>
@@ -46476,7 +46591,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="268" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:16">
       <c r="A268" s="1">
         <v>43132</v>
       </c>
@@ -46526,7 +46641,7 @@
         <v>-16.2</v>
       </c>
     </row>
-    <row r="269" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:16">
       <c r="A269" s="1">
         <v>43133</v>
       </c>
@@ -46576,7 +46691,7 @@
         <v>-43.2</v>
       </c>
     </row>
-    <row r="270" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:16">
       <c r="A270" s="1">
         <v>43136</v>
       </c>
@@ -46626,7 +46741,7 @@
         <v>-60.9</v>
       </c>
     </row>
-    <row r="271" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:16">
       <c r="A271" s="1">
         <v>43137</v>
       </c>
@@ -46676,7 +46791,7 @@
         <v>-70.099999999999994</v>
       </c>
     </row>
-    <row r="272" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:16">
       <c r="A272" s="1">
         <v>43138</v>
       </c>
@@ -46726,7 +46841,7 @@
         <v>-74.2</v>
       </c>
     </row>
-    <row r="273" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:16">
       <c r="A273" s="1">
         <v>43139</v>
       </c>
@@ -46776,7 +46891,7 @@
         <v>-79.400000000000006</v>
       </c>
     </row>
-    <row r="274" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:16">
       <c r="A274" s="1">
         <v>43140</v>
       </c>
@@ -46826,7 +46941,7 @@
         <v>-85.1</v>
       </c>
     </row>
-    <row r="275" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:16">
       <c r="A275" s="1">
         <v>43144</v>
       </c>
@@ -46876,7 +46991,7 @@
         <v>-90.9</v>
       </c>
     </row>
-    <row r="276" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:16">
       <c r="A276" s="1">
         <v>43145</v>
       </c>
@@ -46926,7 +47041,7 @@
         <v>-94.5</v>
       </c>
     </row>
-    <row r="277" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:16">
       <c r="A277" s="1">
         <v>43146</v>
       </c>
@@ -46976,7 +47091,7 @@
         <v>-94.4</v>
       </c>
     </row>
-    <row r="278" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:16">
       <c r="A278" s="1">
         <v>43147</v>
       </c>
@@ -47026,7 +47141,7 @@
         <v>-92.6</v>
       </c>
     </row>
-    <row r="279" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:16">
       <c r="A279" s="1">
         <v>43150</v>
       </c>
@@ -47076,7 +47191,7 @@
         <v>-89.2</v>
       </c>
     </row>
-    <row r="280" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:16">
       <c r="A280" s="1">
         <v>43151</v>
       </c>
@@ -47126,7 +47241,7 @@
         <v>-84.3</v>
       </c>
     </row>
-    <row r="281" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:16">
       <c r="A281" s="1">
         <v>43152</v>
       </c>
@@ -47176,7 +47291,7 @@
         <v>-77.8</v>
       </c>
     </row>
-    <row r="282" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:16">
       <c r="A282" s="1">
         <v>43153</v>
       </c>
@@ -47226,7 +47341,7 @@
         <v>-71.2</v>
       </c>
     </row>
-    <row r="283" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:16">
       <c r="A283" s="1">
         <v>43154</v>
       </c>
@@ -47276,7 +47391,7 @@
         <v>-62.2</v>
       </c>
     </row>
-    <row r="284" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:16">
       <c r="A284" s="1">
         <v>43157</v>
       </c>
@@ -47326,7 +47441,7 @@
         <v>-50.4</v>
       </c>
     </row>
-    <row r="285" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:16">
       <c r="A285" s="1">
         <v>43158</v>
       </c>
@@ -47376,7 +47491,7 @@
         <v>-36.799999999999997</v>
       </c>
     </row>
-    <row r="286" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:16">
       <c r="A286" s="1">
         <v>43159</v>
       </c>
@@ -47426,7 +47541,7 @@
         <v>-22.5</v>
       </c>
     </row>
-    <row r="287" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:16">
       <c r="A287" s="1">
         <v>43160</v>
       </c>
@@ -47476,7 +47591,7 @@
         <v>-11.6</v>
       </c>
     </row>
-    <row r="288" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:16">
       <c r="A288" s="1">
         <v>43161</v>
       </c>
@@ -47526,7 +47641,7 @@
         <v>-10.4</v>
       </c>
     </row>
-    <row r="289" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:16">
       <c r="A289" s="1">
         <v>43164</v>
       </c>
@@ -47576,7 +47691,7 @@
         <v>-10.4</v>
       </c>
     </row>
-    <row r="290" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:16">
       <c r="A290" s="1">
         <v>43165</v>
       </c>
@@ -47626,7 +47741,7 @@
         <v>-4.2</v>
       </c>
     </row>
-    <row r="291" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:16">
       <c r="A291" s="1">
         <v>43166</v>
       </c>
@@ -47676,7 +47791,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="292" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:16">
       <c r="A292" s="1">
         <v>43167</v>
       </c>
@@ -47726,7 +47841,7 @@
         <v>-9.5</v>
       </c>
     </row>
-    <row r="293" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:16">
       <c r="A293" s="1">
         <v>43168</v>
       </c>
@@ -47776,7 +47891,7 @@
         <v>-12.2</v>
       </c>
     </row>
-    <row r="294" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:16">
       <c r="A294" s="1">
         <v>43171</v>
       </c>
@@ -47826,7 +47941,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="295" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:16">
       <c r="A295" s="1">
         <v>43172</v>
       </c>
@@ -47876,7 +47991,7 @@
         <v>-3.1</v>
       </c>
     </row>
-    <row r="296" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:16">
       <c r="A296" s="1">
         <v>43173</v>
       </c>
@@ -47926,7 +48041,7 @@
         <v>-12.1</v>
       </c>
     </row>
-    <row r="297" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:16">
       <c r="A297" s="1">
         <v>43174</v>
       </c>
@@ -47976,7 +48091,7 @@
         <v>-24.2</v>
       </c>
     </row>
-    <row r="298" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:16">
       <c r="A298" s="1">
         <v>43175</v>
       </c>
@@ -48026,7 +48141,7 @@
         <v>-37.1</v>
       </c>
     </row>
-    <row r="299" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:16">
       <c r="A299" s="1">
         <v>43178</v>
       </c>
@@ -48076,7 +48191,7 @@
         <v>-45.5</v>
       </c>
     </row>
-    <row r="300" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:16">
       <c r="A300" s="1">
         <v>43179</v>
       </c>
@@ -48126,7 +48241,7 @@
         <v>-41.7</v>
       </c>
     </row>
-    <row r="301" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:16">
       <c r="A301" s="1">
         <v>43181</v>
       </c>
@@ -48176,7 +48291,7 @@
         <v>-37.1</v>
       </c>
     </row>
-    <row r="302" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:16">
       <c r="A302" s="1">
         <v>43182</v>
       </c>
@@ -48226,7 +48341,7 @@
         <v>-38.700000000000003</v>
       </c>
     </row>
-    <row r="303" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:16">
       <c r="A303" s="1">
         <v>43185</v>
       </c>
@@ -48276,7 +48391,7 @@
         <v>-46.9</v>
       </c>
     </row>
-    <row r="304" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:16">
       <c r="A304" s="1">
         <v>43186</v>
       </c>
@@ -48326,7 +48441,7 @@
         <v>-43.1</v>
       </c>
     </row>
-    <row r="305" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:16">
       <c r="A305" s="1">
         <v>43187</v>
       </c>
@@ -48376,7 +48491,7 @@
         <v>-42.6</v>
       </c>
     </row>
-    <row r="306" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:16">
       <c r="A306" s="1">
         <v>43188</v>
       </c>
@@ -48426,7 +48541,7 @@
         <v>-39.4</v>
       </c>
     </row>
-    <row r="307" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:16">
       <c r="A307" s="1">
         <v>43189</v>
       </c>
@@ -48476,7 +48591,7 @@
         <v>-25.5</v>
       </c>
     </row>
-    <row r="308" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:16">
       <c r="A308" s="1">
         <v>43192</v>
       </c>
@@ -48526,7 +48641,7 @@
         <v>-16.899999999999999</v>
       </c>
     </row>
-    <row r="309" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:16">
       <c r="A309" s="1">
         <v>43193</v>
       </c>
@@ -48576,7 +48691,7 @@
         <v>-28.2</v>
       </c>
     </row>
-    <row r="310" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:16">
       <c r="A310" s="1">
         <v>43194</v>
       </c>
@@ -48626,7 +48741,7 @@
         <v>-43.4</v>
       </c>
     </row>
-    <row r="311" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:16">
       <c r="A311" s="1">
         <v>43195</v>
       </c>
@@ -48676,7 +48791,7 @@
         <v>-34.9</v>
       </c>
     </row>
-    <row r="312" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:16">
       <c r="A312" s="1">
         <v>43196</v>
       </c>
@@ -48726,7 +48841,7 @@
         <v>-40.1</v>
       </c>
     </row>
-    <row r="313" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:16">
       <c r="A313" s="1">
         <v>43199</v>
       </c>
@@ -48776,7 +48891,7 @@
         <v>-36.9</v>
       </c>
     </row>
-    <row r="314" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:16">
       <c r="A314" s="1">
         <v>43200</v>
       </c>
@@ -48826,7 +48941,7 @@
         <v>-28.1</v>
       </c>
     </row>
-    <row r="315" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:16">
       <c r="A315" s="1">
         <v>43201</v>
       </c>
@@ -48876,7 +48991,7 @@
         <v>-8.4</v>
       </c>
     </row>
-    <row r="316" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:16">
       <c r="A316" s="1">
         <v>43202</v>
       </c>
@@ -48926,7 +49041,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="317" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:16">
       <c r="A317" s="1">
         <v>43203</v>
       </c>
@@ -48976,7 +49091,7 @@
         <v>32.5</v>
       </c>
     </row>
-    <row r="318" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:16">
       <c r="A318" s="1">
         <v>43206</v>
       </c>
@@ -49026,7 +49141,7 @@
         <v>59.7</v>
       </c>
     </row>
-    <row r="319" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:16">
       <c r="A319" s="1">
         <v>43207</v>
       </c>
@@ -49076,7 +49191,7 @@
         <v>75.7</v>
       </c>
     </row>
-    <row r="320" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:16">
       <c r="A320" s="1">
         <v>43208</v>
       </c>
@@ -49126,7 +49241,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="321" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:16">
       <c r="A321" s="1">
         <v>43209</v>
       </c>
@@ -49176,7 +49291,7 @@
         <v>89.1</v>
       </c>
     </row>
-    <row r="322" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:16">
       <c r="A322" s="1">
         <v>43210</v>
       </c>
@@ -49226,7 +49341,7 @@
         <v>96.2</v>
       </c>
     </row>
-    <row r="323" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:16">
       <c r="A323" s="1">
         <v>43213</v>
       </c>
@@ -49276,7 +49391,7 @@
         <v>95.5</v>
       </c>
     </row>
-    <row r="324" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:16">
       <c r="A324" s="1">
         <v>43214</v>
       </c>
@@ -49326,7 +49441,7 @@
         <v>95.5</v>
       </c>
     </row>
-    <row r="325" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:16">
       <c r="A325" s="1">
         <v>43215</v>
       </c>
@@ -49376,7 +49491,7 @@
         <v>96.4</v>
       </c>
     </row>
-    <row r="326" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:16">
       <c r="A326" s="1">
         <v>43216</v>
       </c>
@@ -49426,7 +49541,7 @@
         <v>96.4</v>
       </c>
     </row>
-    <row r="327" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:16">
       <c r="A327" s="1">
         <v>43217</v>
       </c>
@@ -49476,7 +49591,7 @@
         <v>96.4</v>
       </c>
     </row>
-    <row r="328" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:16">
       <c r="A328" s="1">
         <v>43221</v>
       </c>
@@ -49526,7 +49641,7 @@
         <v>97.1</v>
       </c>
     </row>
-    <row r="329" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:16">
       <c r="A329" s="1">
         <v>43222</v>
       </c>
@@ -49576,7 +49691,7 @@
         <v>97.4</v>
       </c>
     </row>
-    <row r="330" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:16">
       <c r="A330" s="1">
         <v>43227</v>
       </c>
@@ -49626,7 +49741,7 @@
         <v>96.6</v>
       </c>
     </row>
-    <row r="331" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:16">
       <c r="A331" s="1">
         <v>43228</v>
       </c>
@@ -49676,7 +49791,7 @@
         <v>96.6</v>
       </c>
     </row>
-    <row r="332" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:16">
       <c r="A332" s="1">
         <v>43229</v>
       </c>
@@ -49726,7 +49841,7 @@
         <v>94.8</v>
       </c>
     </row>
-    <row r="333" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:16">
       <c r="A333" s="1">
         <v>43230</v>
       </c>
@@ -49776,7 +49891,7 @@
         <v>93.9</v>
       </c>
     </row>
-    <row r="334" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:16">
       <c r="A334" s="1">
         <v>43231</v>
       </c>
@@ -49826,7 +49941,7 @@
         <v>94.3</v>
       </c>
     </row>
-    <row r="335" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:16">
       <c r="A335" s="1">
         <v>43234</v>
       </c>
@@ -49876,7 +49991,7 @@
         <v>95.1</v>
       </c>
     </row>
-    <row r="336" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:16">
       <c r="A336" s="1">
         <v>43235</v>
       </c>
@@ -49926,7 +50041,7 @@
         <v>95.1</v>
       </c>
     </row>
-    <row r="337" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:16">
       <c r="A337" s="1">
         <v>43236</v>
       </c>
@@ -49976,7 +50091,7 @@
         <v>94.3</v>
       </c>
     </row>
-    <row r="338" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:16">
       <c r="A338" s="1">
         <v>43237</v>
       </c>
@@ -50026,7 +50141,7 @@
         <v>93.9</v>
       </c>
     </row>
-    <row r="339" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:16">
       <c r="A339" s="1">
         <v>43238</v>
       </c>
@@ -50076,7 +50191,7 @@
         <v>93.9</v>
       </c>
     </row>
-    <row r="340" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:16">
       <c r="A340" s="1">
         <v>43241</v>
       </c>
@@ -50126,7 +50241,7 @@
         <v>93.9</v>
       </c>
     </row>
-    <row r="341" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:16">
       <c r="A341" s="1">
         <v>43242</v>
       </c>
@@ -50176,7 +50291,7 @@
         <v>94.2</v>
       </c>
     </row>
-    <row r="342" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:16">
       <c r="A342" s="1">
         <v>43243</v>
       </c>
@@ -50226,7 +50341,7 @@
         <v>89.9</v>
       </c>
     </row>
-    <row r="343" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:16">
       <c r="A343" s="1">
         <v>43244</v>
       </c>
@@ -50276,7 +50391,7 @@
         <v>73.8</v>
       </c>
     </row>
-    <row r="344" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:16">
       <c r="A344" s="1">
         <v>43245</v>
       </c>
@@ -50326,7 +50441,7 @@
         <v>55.6</v>
       </c>
     </row>
-    <row r="345" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:16">
       <c r="A345" s="1">
         <v>43248</v>
       </c>
@@ -50376,7 +50491,7 @@
         <v>41.9</v>
       </c>
     </row>
-    <row r="346" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:16">
       <c r="A346" s="1">
         <v>43249</v>
       </c>
@@ -50426,7 +50541,7 @@
         <v>17.3</v>
       </c>
     </row>
-    <row r="347" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:16">
       <c r="A347" s="1">
         <v>43250</v>
       </c>
@@ -50476,7 +50591,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="348" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:16">
       <c r="A348" s="1">
         <v>43251</v>
       </c>
@@ -50526,7 +50641,7 @@
         <v>-26.8</v>
       </c>
     </row>
-    <row r="349" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:16">
       <c r="A349" s="1">
         <v>43252</v>
       </c>
@@ -50576,7 +50691,7 @@
         <v>-38.6</v>
       </c>
     </row>
-    <row r="350" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:16">
       <c r="A350" s="1">
         <v>43255</v>
       </c>
@@ -50626,7 +50741,7 @@
         <v>-44</v>
       </c>
     </row>
-    <row r="351" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:16">
       <c r="A351" s="1">
         <v>43256</v>
       </c>
@@ -50676,7 +50791,7 @@
         <v>-46.4</v>
       </c>
     </row>
-    <row r="352" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:16">
       <c r="A352" s="1">
         <v>43257</v>
       </c>
@@ -50726,7 +50841,7 @@
         <v>-46.2</v>
       </c>
     </row>
-    <row r="353" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:16">
       <c r="A353" s="1">
         <v>43258</v>
       </c>
@@ -50776,7 +50891,7 @@
         <v>-47.5</v>
       </c>
     </row>
-    <row r="354" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:16">
       <c r="A354" s="1">
         <v>43259</v>
       </c>
@@ -50826,7 +50941,7 @@
         <v>-50.8</v>
       </c>
     </row>
-    <row r="355" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:16">
       <c r="A355" s="1">
         <v>43262</v>
       </c>
@@ -50876,7 +50991,7 @@
         <v>-42.6</v>
       </c>
     </row>
-    <row r="356" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:16">
       <c r="A356" s="1">
         <v>43263</v>
       </c>
@@ -50926,7 +51041,7 @@
         <v>-23.5</v>
       </c>
     </row>
-    <row r="357" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:16">
       <c r="A357" s="1">
         <v>43264</v>
       </c>
@@ -50976,7 +51091,7 @@
         <v>-5.0999999999999996</v>
       </c>
     </row>
-    <row r="358" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:16">
       <c r="A358" s="1">
         <v>43265</v>
       </c>
@@ -51026,7 +51141,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="359" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:16">
       <c r="A359" s="1">
         <v>43266</v>
       </c>
@@ -51076,7 +51191,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="360" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:16">
       <c r="A360" s="1">
         <v>43269</v>
       </c>
@@ -51126,7 +51241,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="361" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:16">
       <c r="A361" s="1">
         <v>43270</v>
       </c>
@@ -51176,7 +51291,7 @@
         <v>32.6</v>
       </c>
     </row>
-    <row r="362" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:16">
       <c r="A362" s="1">
         <v>43271</v>
       </c>
@@ -51226,7 +51341,7 @@
         <v>48.2</v>
       </c>
     </row>
-    <row r="363" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:16">
       <c r="A363" s="1">
         <v>43272</v>
       </c>
@@ -51276,7 +51391,7 @@
         <v>56.4</v>
       </c>
     </row>
-    <row r="364" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:16">
       <c r="A364" s="1">
         <v>43273</v>
       </c>
@@ -51326,7 +51441,7 @@
         <v>49.6</v>
       </c>
     </row>
-    <row r="365" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:16">
       <c r="A365" s="1">
         <v>43276</v>
       </c>
@@ -51376,7 +51491,7 @@
         <v>33.5</v>
       </c>
     </row>
-    <row r="366" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:16">
       <c r="A366" s="1">
         <v>43277</v>
       </c>
@@ -51426,7 +51541,7 @@
         <v>20.6</v>
       </c>
     </row>
-    <row r="367" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:16">
       <c r="A367" s="1">
         <v>43278</v>
       </c>
@@ -51476,7 +51591,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="368" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:16">
       <c r="A368" s="1">
         <v>43279</v>
       </c>
@@ -51526,7 +51641,7 @@
         <v>-13.6</v>
       </c>
     </row>
-    <row r="369" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:16">
       <c r="A369" s="1">
         <v>43280</v>
       </c>
@@ -51576,7 +51691,7 @@
         <v>-36.799999999999997</v>
       </c>
     </row>
-    <row r="370" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:16">
       <c r="A370" s="1">
         <v>43283</v>
       </c>
@@ -51626,7 +51741,7 @@
         <v>-64</v>
       </c>
     </row>
-    <row r="371" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:16">
       <c r="A371" s="1">
         <v>43284</v>
       </c>
@@ -51676,7 +51791,7 @@
         <v>-76.2</v>
       </c>
     </row>
-    <row r="372" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:16">
       <c r="A372" s="1">
         <v>43285</v>
       </c>
@@ -51726,7 +51841,7 @@
         <v>-85.1</v>
       </c>
     </row>
-    <row r="373" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:16">
       <c r="A373" s="1">
         <v>43286</v>
       </c>
@@ -51776,7 +51891,7 @@
         <v>-91.2</v>
       </c>
     </row>
-    <row r="374" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:16">
       <c r="A374" s="1">
         <v>43287</v>
       </c>
@@ -51826,7 +51941,7 @@
         <v>-92.1</v>
       </c>
     </row>
-    <row r="375" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:16">
       <c r="A375" s="1">
         <v>43290</v>
       </c>
@@ -51876,7 +51991,7 @@
         <v>-92.1</v>
       </c>
     </row>
-    <row r="376" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:16">
       <c r="A376" s="1">
         <v>43291</v>
       </c>
@@ -51926,7 +52041,7 @@
         <v>-90.3</v>
       </c>
     </row>
-    <row r="377" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:16">
       <c r="A377" s="1">
         <v>43292</v>
       </c>
@@ -51976,7 +52091,7 @@
         <v>-87.1</v>
       </c>
     </row>
-    <row r="378" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:16">
       <c r="A378" s="1">
         <v>43293</v>
       </c>
@@ -52026,7 +52141,7 @@
         <v>-82.7</v>
       </c>
     </row>
-    <row r="379" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:16">
       <c r="A379" s="1">
         <v>43294</v>
       </c>
@@ -52076,7 +52191,7 @@
         <v>-62.7</v>
       </c>
     </row>
-    <row r="380" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:16">
       <c r="A380" s="1">
         <v>43298</v>
       </c>
@@ -52126,7 +52241,7 @@
         <v>-35.5</v>
       </c>
     </row>
-    <row r="381" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:16">
       <c r="A381" s="1">
         <v>43299</v>
       </c>
@@ -52176,7 +52291,7 @@
         <v>-11.2</v>
       </c>
     </row>
-    <row r="382" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:16">
       <c r="A382" s="1">
         <v>43300</v>
       </c>
@@ -52226,7 +52341,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="383" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:16">
       <c r="A383" s="1">
         <v>43301</v>
       </c>
@@ -52276,7 +52391,7 @@
         <v>22.7</v>
       </c>
     </row>
-    <row r="384" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:16">
       <c r="A384" s="1">
         <v>43304</v>
       </c>
@@ -52326,7 +52441,7 @@
         <v>35.799999999999997</v>
       </c>
     </row>
-    <row r="385" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:16">
       <c r="A385" s="1">
         <v>43305</v>
       </c>
@@ -52376,7 +52491,7 @@
         <v>49.5</v>
       </c>
     </row>
-    <row r="386" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:16">
       <c r="A386" s="1">
         <v>43306</v>
       </c>
@@ -52426,7 +52541,7 @@
         <v>58.8</v>
       </c>
     </row>
-    <row r="387" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:16">
       <c r="A387" s="1">
         <v>43307</v>
       </c>
@@ -52476,7 +52591,7 @@
         <v>64.900000000000006</v>
       </c>
     </row>
-    <row r="388" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:16">
       <c r="A388" s="1">
         <v>43308</v>
       </c>
@@ -52526,7 +52641,7 @@
         <v>71.599999999999994</v>
       </c>
     </row>
-    <row r="389" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:16">
       <c r="A389" s="1">
         <v>43311</v>
       </c>
@@ -52576,7 +52691,7 @@
         <v>72.599999999999994</v>
       </c>
     </row>
-    <row r="390" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:16">
       <c r="A390" s="1">
         <v>43312</v>
       </c>
@@ -52626,7 +52741,7 @@
         <v>71.400000000000006</v>
       </c>
     </row>
-    <row r="391" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:16">
       <c r="A391" s="1">
         <v>43313</v>
       </c>
@@ -52676,7 +52791,7 @@
         <v>70.3</v>
       </c>
     </row>
-    <row r="392" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:16">
       <c r="A392" s="1">
         <v>43314</v>
       </c>
@@ -52726,7 +52841,7 @@
         <v>60.8</v>
       </c>
     </row>
-    <row r="393" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:16">
       <c r="A393" s="1">
         <v>43315</v>
       </c>
@@ -52776,7 +52891,7 @@
         <v>49.6</v>
       </c>
     </row>
-    <row r="394" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:16">
       <c r="A394" s="1">
         <v>43318</v>
       </c>
@@ -52826,7 +52941,7 @@
         <v>35.299999999999997</v>
       </c>
     </row>
-    <row r="395" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:16">
       <c r="A395" s="1">
         <v>43319</v>
       </c>
@@ -52876,7 +52991,7 @@
         <v>26.9</v>
       </c>
     </row>
-    <row r="396" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:16">
       <c r="A396" s="1">
         <v>43320</v>
       </c>
@@ -52926,7 +53041,7 @@
         <v>17.8</v>
       </c>
     </row>
-    <row r="397" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:16">
       <c r="A397" s="1">
         <v>43321</v>
       </c>
@@ -52976,7 +53091,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="398" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:16">
       <c r="A398" s="1">
         <v>43322</v>
       </c>
@@ -53026,7 +53141,7 @@
         <v>-18.3</v>
       </c>
     </row>
-    <row r="399" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:16">
       <c r="A399" s="1">
         <v>43325</v>
       </c>
@@ -53076,7 +53191,7 @@
         <v>-45.6</v>
       </c>
     </row>
-    <row r="400" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:16">
       <c r="A400" s="1">
         <v>43326</v>
       </c>
@@ -53126,7 +53241,7 @@
         <v>-56.8</v>
       </c>
     </row>
-    <row r="401" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:16">
       <c r="A401" s="1">
         <v>43327</v>
       </c>
@@ -53176,7 +53291,7 @@
         <v>-59.7</v>
       </c>
     </row>
-    <row r="402" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:16">
       <c r="A402" s="1">
         <v>43328</v>
       </c>
@@ -53226,7 +53341,7 @@
         <v>-59.4</v>
       </c>
     </row>
-    <row r="403" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:16">
       <c r="A403" s="1">
         <v>43329</v>
       </c>
@@ -53277,7 +53392,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O1">
+  <autoFilter ref="A1:O1" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState ref="A2:O198">
       <sortCondition ref="A1"/>
     </sortState>
@@ -53288,21 +53403,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:12">
       <c r="B1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12">
       <c r="L5" s="2"/>
     </row>
   </sheetData>

--- a/PyScraping/998407.O-anal.xlsx
+++ b/PyScraping/998407.O-anal.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sin\Documents\Workspace\PyScraping\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="420" yWindow="368" windowWidth="12893" windowHeight="7050" activeTab="1"/>
+    <workbookView xWindow="420" yWindow="375" windowWidth="12900" windowHeight="7050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="998407.O-anal" sheetId="1" r:id="rId1"/>
@@ -78,7 +83,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -723,16 +728,24 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF0000"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
   <c:roundedCorners val="0"/>
@@ -3213,6 +3226,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-681B-4AD2-99FD-4CEE8C4BA2C4}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -5676,6 +5694,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-681B-4AD2-99FD-4CEE8C4BA2C4}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -8128,6 +8151,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-681B-4AD2-99FD-4CEE8C4BA2C4}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -10580,6 +10608,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-681B-4AD2-99FD-4CEE8C4BA2C4}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -13034,6 +13067,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-681B-4AD2-99FD-4CEE8C4BA2C4}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -15486,6 +15524,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-681B-4AD2-99FD-4CEE8C4BA2C4}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
@@ -17938,6 +17981,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-681B-4AD2-99FD-4CEE8C4BA2C4}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="8"/>
@@ -20390,6 +20438,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-681B-4AD2-99FD-4CEE8C4BA2C4}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="10"/>
@@ -22848,6 +22901,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-681B-4AD2-99FD-4CEE8C4BA2C4}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="11"/>
@@ -25306,6 +25364,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-681B-4AD2-99FD-4CEE8C4BA2C4}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="12"/>
@@ -27764,6 +27827,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-681B-4AD2-99FD-4CEE8C4BA2C4}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="13"/>
@@ -30222,6 +30290,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-681B-4AD2-99FD-4CEE8C4BA2C4}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -32685,6 +32758,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-681B-4AD2-99FD-4CEE8C4BA2C4}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -32771,6 +32849,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="156701440"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
@@ -32788,6 +32867,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
@@ -32796,15 +32876,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>7936</xdr:colOff>
+      <xdr:colOff>17461</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>69849</xdr:rowOff>
+      <xdr:rowOff>107949</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -32825,11 +32905,115 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="直線コネクタ 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5210175" y="1838325"/>
+          <a:ext cx="4305300" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000">
+              <a:alpha val="67000"/>
+            </a:srgbClr>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.17251</cdr:x>
+      <cdr:y>0.47818</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.86008</cdr:x>
+      <cdr:y>0.83192</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="3" name="直線コネクタ 2"/>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipV="1">
+          <a:off x="1773239" y="2330451"/>
+          <a:ext cx="7067550" cy="1724025"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000">
+              <a:alpha val="69804"/>
+            </a:srgbClr>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -32871,7 +33055,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -32906,7 +33090,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -33121,12 +33305,12 @@
       <selection sqref="A1:P403"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.73046875" customWidth="1"/>
+    <col min="1" max="1" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -33176,7 +33360,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>42739</v>
       </c>
@@ -33226,7 +33410,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>42740</v>
       </c>
@@ -33276,7 +33460,7 @@
         <v>99.9</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>42741</v>
       </c>
@@ -33326,7 +33510,7 @@
         <v>99.5</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>42745</v>
       </c>
@@ -33376,7 +33560,7 @@
         <v>98.7</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>42746</v>
       </c>
@@ -33426,7 +33610,7 @@
         <v>97.5</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>42747</v>
       </c>
@@ -33476,7 +33660,7 @@
         <v>95.6</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>42748</v>
       </c>
@@ -33526,7 +33710,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>42751</v>
       </c>
@@ -33576,7 +33760,7 @@
         <v>89.4</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>42752</v>
       </c>
@@ -33626,7 +33810,7 @@
         <v>84.7</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>42753</v>
       </c>
@@ -33676,7 +33860,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>42754</v>
       </c>
@@ -33726,7 +33910,7 @@
         <v>72.2</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>42755</v>
       </c>
@@ -33776,7 +33960,7 @@
         <v>65.7</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>42758</v>
       </c>
@@ -33826,7 +34010,7 @@
         <v>56.1</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>42759</v>
       </c>
@@ -33876,7 +34060,7 @@
         <v>44.3</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>42760</v>
       </c>
@@ -33926,7 +34110,7 @@
         <v>32.5</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>42761</v>
       </c>
@@ -33976,7 +34160,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>42762</v>
       </c>
@@ -34026,7 +34210,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>42765</v>
       </c>
@@ -34076,7 +34260,7 @@
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>42766</v>
       </c>
@@ -34126,7 +34310,7 @@
         <v>-1.9</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>42767</v>
       </c>
@@ -34176,7 +34360,7 @@
         <v>-15.8</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>42768</v>
       </c>
@@ -34226,7 +34410,7 @@
         <v>-38.200000000000003</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>42769</v>
       </c>
@@ -34276,7 +34460,7 @@
         <v>-32.6</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>42772</v>
       </c>
@@ -34326,7 +34510,7 @@
         <v>-26.2</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>42773</v>
       </c>
@@ -34376,7 +34560,7 @@
         <v>-21.6</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>42774</v>
       </c>
@@ -34426,7 +34610,7 @@
         <v>-18.399999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>42775</v>
       </c>
@@ -34476,7 +34660,7 @@
         <v>-15.6</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>42776</v>
       </c>
@@ -34526,7 +34710,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>42779</v>
       </c>
@@ -34576,7 +34760,7 @@
         <v>21.3</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>42780</v>
       </c>
@@ -34626,7 +34810,7 @@
         <v>32.9</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>42781</v>
       </c>
@@ -34676,7 +34860,7 @@
         <v>31.6</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>42782</v>
       </c>
@@ -34726,7 +34910,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>42783</v>
       </c>
@@ -34776,7 +34960,7 @@
         <v>30.1</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>42786</v>
       </c>
@@ -34826,7 +35010,7 @@
         <v>32.5</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>42787</v>
       </c>
@@ -34876,7 +35060,7 @@
         <v>26.8</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <v>42788</v>
       </c>
@@ -34926,7 +35110,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>42789</v>
       </c>
@@ -34976,7 +35160,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
         <v>42790</v>
       </c>
@@ -35026,7 +35210,7 @@
         <v>32.700000000000003</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
         <v>42793</v>
       </c>
@@ -35076,7 +35260,7 @@
         <v>46.5</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
         <v>42794</v>
       </c>
@@ -35126,7 +35310,7 @@
         <v>50.6</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
         <v>42795</v>
       </c>
@@ -35176,7 +35360,7 @@
         <v>51.3</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
         <v>42796</v>
       </c>
@@ -35226,7 +35410,7 @@
         <v>58.8</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
         <v>42797</v>
       </c>
@@ -35276,7 +35460,7 @@
         <v>59.7</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
         <v>42800</v>
       </c>
@@ -35326,7 +35510,7 @@
         <v>53.9</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
         <v>42801</v>
       </c>
@@ -35376,7 +35560,7 @@
         <v>41.8</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
         <v>42802</v>
       </c>
@@ -35426,7 +35610,7 @@
         <v>26.9</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A47" s="1">
         <v>42803</v>
       </c>
@@ -35476,7 +35660,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A48" s="1">
         <v>42804</v>
       </c>
@@ -35526,7 +35710,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A49" s="1">
         <v>42807</v>
       </c>
@@ -35576,7 +35760,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A50" s="1">
         <v>42808</v>
       </c>
@@ -35626,7 +35810,7 @@
         <v>44.5</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A51" s="1">
         <v>42809</v>
       </c>
@@ -35676,7 +35860,7 @@
         <v>46.6</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A52" s="1">
         <v>42810</v>
       </c>
@@ -35726,7 +35910,7 @@
         <v>60.1</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A53" s="1">
         <v>42811</v>
       </c>
@@ -35776,7 +35960,7 @@
         <v>65.3</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A54" s="1">
         <v>42815</v>
       </c>
@@ -35826,7 +36010,7 @@
         <v>61.3</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A55" s="1">
         <v>42816</v>
       </c>
@@ -35876,7 +36060,7 @@
         <v>35.5</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A56" s="1">
         <v>42817</v>
       </c>
@@ -35926,7 +36110,7 @@
         <v>18.3</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A57" s="1">
         <v>42818</v>
       </c>
@@ -35976,7 +36160,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A58" s="1">
         <v>42821</v>
       </c>
@@ -36026,7 +36210,7 @@
         <v>-6.9</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A59" s="1">
         <v>42822</v>
       </c>
@@ -36076,7 +36260,7 @@
         <v>-17</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A60" s="1">
         <v>42823</v>
       </c>
@@ -36126,7 +36310,7 @@
         <v>-33.4</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A61" s="1">
         <v>42824</v>
       </c>
@@ -36176,7 +36360,7 @@
         <v>-53.1</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A62" s="1">
         <v>42825</v>
       </c>
@@ -36226,7 +36410,7 @@
         <v>-62.6</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A63" s="1">
         <v>42828</v>
       </c>
@@ -36276,7 +36460,7 @@
         <v>-67.7</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A64" s="1">
         <v>42829</v>
       </c>
@@ -36326,7 +36510,7 @@
         <v>-73.5</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A65" s="1">
         <v>42830</v>
       </c>
@@ -36376,7 +36560,7 @@
         <v>-79.7</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A66" s="1">
         <v>42831</v>
       </c>
@@ -36426,7 +36610,7 @@
         <v>-85.2</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A67" s="1">
         <v>42832</v>
       </c>
@@ -36476,7 +36660,7 @@
         <v>-91.2</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A68" s="1">
         <v>42835</v>
       </c>
@@ -36526,7 +36710,7 @@
         <v>-94.4</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A69" s="1">
         <v>42836</v>
       </c>
@@ -36576,7 +36760,7 @@
         <v>-94.2</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A70" s="1">
         <v>42837</v>
       </c>
@@ -36626,7 +36810,7 @@
         <v>-94.2</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A71" s="1">
         <v>42838</v>
       </c>
@@ -36676,7 +36860,7 @@
         <v>-94.2</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A72" s="1">
         <v>42839</v>
       </c>
@@ -36726,7 +36910,7 @@
         <v>-94.3</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A73" s="1">
         <v>42842</v>
       </c>
@@ -36776,7 +36960,7 @@
         <v>-94.2</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A74" s="1">
         <v>42843</v>
       </c>
@@ -36826,7 +37010,7 @@
         <v>-93.8</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A75" s="1">
         <v>42844</v>
       </c>
@@ -36876,7 +37060,7 @@
         <v>-92.5</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A76" s="1">
         <v>42845</v>
       </c>
@@ -36926,7 +37110,7 @@
         <v>-93</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A77" s="1">
         <v>42846</v>
       </c>
@@ -36976,7 +37160,7 @@
         <v>-89</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A78" s="1">
         <v>42849</v>
       </c>
@@ -37026,7 +37210,7 @@
         <v>-75.3</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A79" s="1">
         <v>42850</v>
       </c>
@@ -37076,7 +37260,7 @@
         <v>-53.9</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A80" s="1">
         <v>42851</v>
       </c>
@@ -37126,7 +37310,7 @@
         <v>-26.8</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A81" s="1">
         <v>42852</v>
       </c>
@@ -37176,7 +37360,7 @@
         <v>-2.2000000000000002</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A82" s="1">
         <v>42853</v>
       </c>
@@ -37226,7 +37410,7 @@
         <v>17.3</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A83" s="1">
         <v>42856</v>
       </c>
@@ -37276,7 +37460,7 @@
         <v>34.799999999999997</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A84" s="1">
         <v>42857</v>
       </c>
@@ -37326,7 +37510,7 @@
         <v>50.4</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A85" s="1">
         <v>42863</v>
       </c>
@@ -37376,7 +37560,7 @@
         <v>62.1</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A86" s="1">
         <v>42864</v>
       </c>
@@ -37426,7 +37610,7 @@
         <v>72.099999999999994</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A87" s="1">
         <v>42865</v>
       </c>
@@ -37476,7 +37660,7 @@
         <v>78.400000000000006</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A88" s="1">
         <v>42866</v>
       </c>
@@ -37526,7 +37710,7 @@
         <v>85.2</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A89" s="1">
         <v>42867</v>
       </c>
@@ -37576,7 +37760,7 @@
         <v>90.1</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A90" s="1">
         <v>42870</v>
       </c>
@@ -37626,7 +37810,7 @@
         <v>93.4</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A91" s="1">
         <v>42871</v>
       </c>
@@ -37676,7 +37860,7 @@
         <v>95.7</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A92" s="1">
         <v>42872</v>
       </c>
@@ -37726,7 +37910,7 @@
         <v>92.9</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A93" s="1">
         <v>42873</v>
       </c>
@@ -37776,7 +37960,7 @@
         <v>88.2</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A94" s="1">
         <v>42874</v>
       </c>
@@ -37826,7 +38010,7 @@
         <v>82.5</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A95" s="1">
         <v>42877</v>
       </c>
@@ -37876,7 +38060,7 @@
         <v>75.7</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A96" s="1">
         <v>42878</v>
       </c>
@@ -37926,7 +38110,7 @@
         <v>67.900000000000006</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A97" s="1">
         <v>42879</v>
       </c>
@@ -37976,7 +38160,7 @@
         <v>59.1</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A98" s="1">
         <v>42880</v>
       </c>
@@ -38026,7 +38210,7 @@
         <v>49.2</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A99" s="1">
         <v>42881</v>
       </c>
@@ -38076,7 +38260,7 @@
         <v>37.9</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A100" s="1">
         <v>42884</v>
       </c>
@@ -38126,7 +38310,7 @@
         <v>25.2</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A101" s="1">
         <v>42885</v>
       </c>
@@ -38176,7 +38360,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A102" s="1">
         <v>42886</v>
       </c>
@@ -38226,7 +38410,7 @@
         <v>-6.2</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A103" s="1">
         <v>42887</v>
       </c>
@@ -38276,7 +38460,7 @@
         <v>-17.7</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A104" s="1">
         <v>42888</v>
       </c>
@@ -38326,7 +38510,7 @@
         <v>-17.7</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A105" s="1">
         <v>42891</v>
       </c>
@@ -38376,7 +38560,7 @@
         <v>-17.8</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A106" s="1">
         <v>42892</v>
       </c>
@@ -38426,7 +38610,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A107" s="1">
         <v>42893</v>
       </c>
@@ -38476,7 +38660,7 @@
         <v>17.7</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A108" s="1">
         <v>42894</v>
       </c>
@@ -38526,7 +38710,7 @@
         <v>28.6</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A109" s="1">
         <v>42895</v>
       </c>
@@ -38576,7 +38760,7 @@
         <v>45.6</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A110" s="1">
         <v>42898</v>
       </c>
@@ -38626,7 +38810,7 @@
         <v>53.8</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A111" s="1">
         <v>42899</v>
       </c>
@@ -38676,7 +38860,7 @@
         <v>59.2</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A112" s="1">
         <v>42900</v>
       </c>
@@ -38726,7 +38910,7 @@
         <v>71.900000000000006</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A113" s="1">
         <v>42901</v>
       </c>
@@ -38776,7 +38960,7 @@
         <v>71.900000000000006</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A114" s="1">
         <v>42902</v>
       </c>
@@ -38826,7 +39010,7 @@
         <v>66.900000000000006</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A115" s="1">
         <v>42905</v>
       </c>
@@ -38876,7 +39060,7 @@
         <v>64.2</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A116" s="1">
         <v>42906</v>
       </c>
@@ -38926,7 +39110,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A117" s="1">
         <v>42907</v>
       </c>
@@ -38976,7 +39160,7 @@
         <v>62.6</v>
       </c>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A118" s="1">
         <v>42908</v>
       </c>
@@ -39026,7 +39210,7 @@
         <v>60.5</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A119" s="1">
         <v>42909</v>
       </c>
@@ -39076,7 +39260,7 @@
         <v>57.4</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A120" s="1">
         <v>42912</v>
       </c>
@@ -39126,7 +39310,7 @@
         <v>53.6</v>
       </c>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A121" s="1">
         <v>42913</v>
       </c>
@@ -39176,7 +39360,7 @@
         <v>53.4</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A122" s="1">
         <v>42914</v>
       </c>
@@ -39226,7 +39410,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A123" s="1">
         <v>42915</v>
       </c>
@@ -39276,7 +39460,7 @@
         <v>45.6</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A124" s="1">
         <v>42916</v>
       </c>
@@ -39326,7 +39510,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A125" s="1">
         <v>42919</v>
       </c>
@@ -39376,7 +39560,7 @@
         <v>47.4</v>
       </c>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A126" s="1">
         <v>42920</v>
       </c>
@@ -39426,7 +39610,7 @@
         <v>60.3</v>
       </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A127" s="1">
         <v>42921</v>
       </c>
@@ -39476,7 +39660,7 @@
         <v>56.6</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A128" s="1">
         <v>42922</v>
       </c>
@@ -39526,7 +39710,7 @@
         <v>45.7</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A129" s="1">
         <v>42923</v>
       </c>
@@ -39576,7 +39760,7 @@
         <v>29.4</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A130" s="1">
         <v>42926</v>
       </c>
@@ -39626,7 +39810,7 @@
         <v>25.1</v>
       </c>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A131" s="1">
         <v>42927</v>
       </c>
@@ -39676,7 +39860,7 @@
         <v>21.6</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A132" s="1">
         <v>42928</v>
       </c>
@@ -39726,7 +39910,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A133" s="1">
         <v>42929</v>
       </c>
@@ -39776,7 +39960,7 @@
         <v>-5.3</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A134" s="1">
         <v>42930</v>
       </c>
@@ -39826,7 +40010,7 @@
         <v>-18.7</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A135" s="1">
         <v>42934</v>
       </c>
@@ -39876,7 +40060,7 @@
         <v>-42.3</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A136" s="1">
         <v>42935</v>
       </c>
@@ -39926,7 +40110,7 @@
         <v>-57.5</v>
       </c>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A137" s="1">
         <v>42936</v>
       </c>
@@ -39976,7 +40160,7 @@
         <v>-37.1</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A138" s="1">
         <v>42937</v>
       </c>
@@ -40026,7 +40210,7 @@
         <v>-31.8</v>
       </c>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A139" s="1">
         <v>42940</v>
       </c>
@@ -40076,7 +40260,7 @@
         <v>-38.700000000000003</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A140" s="1">
         <v>42941</v>
       </c>
@@ -40126,7 +40310,7 @@
         <v>-42.1</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A141" s="1">
         <v>42942</v>
       </c>
@@ -40176,7 +40360,7 @@
         <v>-34.799999999999997</v>
       </c>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A142" s="1">
         <v>42943</v>
       </c>
@@ -40226,7 +40410,7 @@
         <v>-22.2</v>
       </c>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A143" s="1">
         <v>42944</v>
       </c>
@@ -40276,7 +40460,7 @@
         <v>-23.2</v>
       </c>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A144" s="1">
         <v>42947</v>
       </c>
@@ -40326,7 +40510,7 @@
         <v>-23.2</v>
       </c>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A145" s="1">
         <v>42948</v>
       </c>
@@ -40376,7 +40560,7 @@
         <v>-33.1</v>
       </c>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A146" s="1">
         <v>42949</v>
       </c>
@@ -40426,7 +40610,7 @@
         <v>-29.9</v>
       </c>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A147" s="1">
         <v>42950</v>
       </c>
@@ -40476,7 +40660,7 @@
         <v>-32.6</v>
       </c>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A148" s="1">
         <v>42951</v>
       </c>
@@ -40526,7 +40710,7 @@
         <v>-35.200000000000003</v>
       </c>
     </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A149" s="1">
         <v>42954</v>
       </c>
@@ -40576,7 +40760,7 @@
         <v>-38.6</v>
       </c>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A150" s="1">
         <v>42955</v>
       </c>
@@ -40626,7 +40810,7 @@
         <v>-58.6</v>
       </c>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A151" s="1">
         <v>42956</v>
       </c>
@@ -40676,7 +40860,7 @@
         <v>-61.8</v>
       </c>
     </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A152" s="1">
         <v>42957</v>
       </c>
@@ -40726,7 +40910,7 @@
         <v>-61.8</v>
       </c>
     </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A153" s="1">
         <v>42961</v>
       </c>
@@ -40776,7 +40960,7 @@
         <v>-63.6</v>
       </c>
     </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A154" s="1">
         <v>42962</v>
       </c>
@@ -40826,7 +41010,7 @@
         <v>-63.5</v>
       </c>
     </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A155" s="1">
         <v>42963</v>
       </c>
@@ -40876,7 +41060,7 @@
         <v>-63.6</v>
       </c>
     </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A156" s="1">
         <v>42964</v>
       </c>
@@ -40926,7 +41110,7 @@
         <v>-70.5</v>
       </c>
     </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A157" s="1">
         <v>42965</v>
       </c>
@@ -40976,7 +41160,7 @@
         <v>-76.8</v>
       </c>
     </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A158" s="1">
         <v>42968</v>
       </c>
@@ -41026,7 +41210,7 @@
         <v>-76.8</v>
       </c>
     </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A159" s="1">
         <v>42969</v>
       </c>
@@ -41076,7 +41260,7 @@
         <v>-76.8</v>
       </c>
     </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A160" s="1">
         <v>42970</v>
       </c>
@@ -41126,7 +41310,7 @@
         <v>-82.5</v>
       </c>
     </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A161" s="1">
         <v>42971</v>
       </c>
@@ -41176,7 +41360,7 @@
         <v>-88.1</v>
       </c>
     </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A162" s="1">
         <v>42972</v>
       </c>
@@ -41226,7 +41410,7 @@
         <v>-88.6</v>
       </c>
     </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A163" s="1">
         <v>42975</v>
       </c>
@@ -41276,7 +41460,7 @@
         <v>-87.3</v>
       </c>
     </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A164" s="1">
         <v>42976</v>
       </c>
@@ -41326,7 +41510,7 @@
         <v>-89.7</v>
       </c>
     </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A165" s="1">
         <v>42977</v>
       </c>
@@ -41376,7 +41560,7 @@
         <v>-87.8</v>
       </c>
     </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A166" s="1">
         <v>42978</v>
       </c>
@@ -41426,7 +41610,7 @@
         <v>-81.8</v>
       </c>
     </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A167" s="1">
         <v>42979</v>
       </c>
@@ -41476,7 +41660,7 @@
         <v>-72.900000000000006</v>
       </c>
     </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A168" s="1">
         <v>42982</v>
       </c>
@@ -41526,7 +41710,7 @@
         <v>-64.900000000000006</v>
       </c>
     </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A169" s="1">
         <v>42983</v>
       </c>
@@ -41576,7 +41760,7 @@
         <v>-62.3</v>
       </c>
     </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A170" s="1">
         <v>42984</v>
       </c>
@@ -41626,7 +41810,7 @@
         <v>-61.2</v>
       </c>
     </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A171" s="1">
         <v>42985</v>
       </c>
@@ -41676,7 +41860,7 @@
         <v>-55.3</v>
       </c>
     </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A172" s="1">
         <v>42986</v>
       </c>
@@ -41726,7 +41910,7 @@
         <v>-55.7</v>
       </c>
     </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A173" s="1">
         <v>42989</v>
       </c>
@@ -41776,7 +41960,7 @@
         <v>-37.4</v>
       </c>
     </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A174" s="1">
         <v>42990</v>
       </c>
@@ -41826,7 +42010,7 @@
         <v>-17</v>
       </c>
     </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A175" s="1">
         <v>42991</v>
       </c>
@@ -41876,7 +42060,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A176" s="1">
         <v>42992</v>
       </c>
@@ -41926,7 +42110,7 @@
         <v>29.7</v>
       </c>
     </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A177" s="1">
         <v>42993</v>
       </c>
@@ -41976,7 +42160,7 @@
         <v>49.6</v>
       </c>
     </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A178" s="1">
         <v>42997</v>
       </c>
@@ -42026,7 +42210,7 @@
         <v>60.3</v>
       </c>
     </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A179" s="1">
         <v>42998</v>
       </c>
@@ -42076,7 +42260,7 @@
         <v>66.400000000000006</v>
       </c>
     </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A180" s="1">
         <v>42999</v>
       </c>
@@ -42126,7 +42310,7 @@
         <v>70.400000000000006</v>
       </c>
     </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A181" s="1">
         <v>43000</v>
       </c>
@@ -42176,7 +42360,7 @@
         <v>75.7</v>
       </c>
     </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A182" s="1">
         <v>43003</v>
       </c>
@@ -42226,7 +42410,7 @@
         <v>77.099999999999994</v>
       </c>
     </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A183" s="1">
         <v>43004</v>
       </c>
@@ -42276,7 +42460,7 @@
         <v>81.400000000000006</v>
       </c>
     </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A184" s="1">
         <v>43005</v>
       </c>
@@ -42326,7 +42510,7 @@
         <v>82.7</v>
       </c>
     </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A185" s="1">
         <v>43006</v>
       </c>
@@ -42376,7 +42560,7 @@
         <v>84.2</v>
       </c>
     </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A186" s="1">
         <v>43007</v>
       </c>
@@ -42426,7 +42610,7 @@
         <v>86.4</v>
       </c>
     </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A187" s="1">
         <v>43010</v>
       </c>
@@ -42476,7 +42660,7 @@
         <v>89.9</v>
       </c>
     </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A188" s="1">
         <v>43011</v>
       </c>
@@ -42526,7 +42710,7 @@
         <v>92.6</v>
       </c>
     </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A189" s="1">
         <v>43012</v>
       </c>
@@ -42576,7 +42760,7 @@
         <v>93.9</v>
       </c>
     </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A190" s="1">
         <v>43013</v>
       </c>
@@ -42626,7 +42810,7 @@
         <v>94.4</v>
       </c>
     </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A191" s="1">
         <v>43014</v>
       </c>
@@ -42676,7 +42860,7 @@
         <v>94.7</v>
       </c>
     </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A192" s="1">
         <v>43018</v>
       </c>
@@ -42726,7 +42910,7 @@
         <v>94.8</v>
       </c>
     </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A193" s="1">
         <v>43019</v>
       </c>
@@ -42776,7 +42960,7 @@
         <v>94.8</v>
       </c>
     </row>
-    <row r="194" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A194" s="1">
         <v>43020</v>
       </c>
@@ -42826,7 +43010,7 @@
         <v>94.8</v>
       </c>
     </row>
-    <row r="195" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A195" s="1">
         <v>43021</v>
       </c>
@@ -42876,7 +43060,7 @@
         <v>94.8</v>
       </c>
     </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A196" s="1">
         <v>43024</v>
       </c>
@@ -42926,7 +43110,7 @@
         <v>94.9</v>
       </c>
     </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A197" s="1">
         <v>43025</v>
       </c>
@@ -42976,7 +43160,7 @@
         <v>94.9</v>
       </c>
     </row>
-    <row r="198" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A198" s="1">
         <v>43026</v>
       </c>
@@ -43026,7 +43210,7 @@
         <v>94.9</v>
       </c>
     </row>
-    <row r="199" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A199" s="1">
         <v>43027</v>
       </c>
@@ -43076,7 +43260,7 @@
         <v>96.1</v>
       </c>
     </row>
-    <row r="200" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A200" s="1">
         <v>43028</v>
       </c>
@@ -43126,7 +43310,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A201" s="1">
         <v>43031</v>
       </c>
@@ -43176,7 +43360,7 @@
         <v>98.1</v>
       </c>
     </row>
-    <row r="202" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A202" s="1">
         <v>43032</v>
       </c>
@@ -43226,7 +43410,7 @@
         <v>98.4</v>
       </c>
     </row>
-    <row r="203" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A203" s="1">
         <v>43033</v>
       </c>
@@ -43276,7 +43460,7 @@
         <v>99.6</v>
       </c>
     </row>
-    <row r="204" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A204" s="1">
         <v>43034</v>
       </c>
@@ -43326,7 +43510,7 @@
         <v>99.5</v>
       </c>
     </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A205" s="1">
         <v>43035</v>
       </c>
@@ -43376,7 +43560,7 @@
         <v>99.5</v>
       </c>
     </row>
-    <row r="206" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A206" s="1">
         <v>43038</v>
       </c>
@@ -43426,7 +43610,7 @@
         <v>99.6</v>
       </c>
     </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A207" s="1">
         <v>43039</v>
       </c>
@@ -43476,7 +43660,7 @@
         <v>99.5</v>
       </c>
     </row>
-    <row r="208" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A208" s="1">
         <v>43040</v>
       </c>
@@ -43526,7 +43710,7 @@
         <v>99.5</v>
       </c>
     </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A209" s="1">
         <v>43041</v>
       </c>
@@ -43576,7 +43760,7 @@
         <v>99.5</v>
       </c>
     </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A210" s="1">
         <v>43045</v>
       </c>
@@ -43626,7 +43810,7 @@
         <v>99.5</v>
       </c>
     </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A211" s="1">
         <v>43046</v>
       </c>
@@ -43676,7 +43860,7 @@
         <v>99.5</v>
       </c>
     </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A212" s="1">
         <v>43047</v>
       </c>
@@ -43726,7 +43910,7 @@
         <v>99.4</v>
       </c>
     </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A213" s="1">
         <v>43048</v>
       </c>
@@ -43776,7 +43960,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="214" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A214" s="1">
         <v>43049</v>
       </c>
@@ -43826,7 +44010,7 @@
         <v>98.2</v>
       </c>
     </row>
-    <row r="215" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A215" s="1">
         <v>43052</v>
       </c>
@@ -43876,7 +44060,7 @@
         <v>94.5</v>
       </c>
     </row>
-    <row r="216" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A216" s="1">
         <v>43053</v>
       </c>
@@ -43926,7 +44110,7 @@
         <v>89.9</v>
       </c>
     </row>
-    <row r="217" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A217" s="1">
         <v>43054</v>
       </c>
@@ -43976,7 +44160,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="218" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A218" s="1">
         <v>43055</v>
       </c>
@@ -44026,7 +44210,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="219" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A219" s="1">
         <v>43056</v>
       </c>
@@ -44076,7 +44260,7 @@
         <v>69.7</v>
       </c>
     </row>
-    <row r="220" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A220" s="1">
         <v>43059</v>
       </c>
@@ -44126,7 +44310,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="221" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A221" s="1">
         <v>43060</v>
       </c>
@@ -44176,7 +44360,7 @@
         <v>50.9</v>
       </c>
     </row>
-    <row r="222" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A222" s="1">
         <v>43061</v>
       </c>
@@ -44226,7 +44410,7 @@
         <v>42.7</v>
       </c>
     </row>
-    <row r="223" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A223" s="1">
         <v>43063</v>
       </c>
@@ -44276,7 +44460,7 @@
         <v>37.700000000000003</v>
       </c>
     </row>
-    <row r="224" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A224" s="1">
         <v>43066</v>
       </c>
@@ -44326,7 +44510,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="225" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A225" s="1">
         <v>43067</v>
       </c>
@@ -44376,7 +44560,7 @@
         <v>16.2</v>
       </c>
     </row>
-    <row r="226" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A226" s="1">
         <v>43068</v>
       </c>
@@ -44426,7 +44610,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="227" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A227" s="1">
         <v>43069</v>
       </c>
@@ -44476,7 +44660,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="228" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A228" s="1">
         <v>43070</v>
       </c>
@@ -44526,7 +44710,7 @@
         <v>-2.7</v>
       </c>
     </row>
-    <row r="229" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A229" s="1">
         <v>43073</v>
       </c>
@@ -44576,7 +44760,7 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="230" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A230" s="1">
         <v>43074</v>
       </c>
@@ -44626,7 +44810,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="231" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A231" s="1">
         <v>43075</v>
       </c>
@@ -44676,7 +44860,7 @@
         <v>-9.5</v>
       </c>
     </row>
-    <row r="232" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A232" s="1">
         <v>43076</v>
       </c>
@@ -44726,7 +44910,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="233" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A233" s="1">
         <v>43077</v>
       </c>
@@ -44776,7 +44960,7 @@
         <v>29.4</v>
       </c>
     </row>
-    <row r="234" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A234" s="1">
         <v>43080</v>
       </c>
@@ -44826,7 +45010,7 @@
         <v>56.6</v>
       </c>
     </row>
-    <row r="235" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A235" s="1">
         <v>43081</v>
       </c>
@@ -44876,7 +45060,7 @@
         <v>73.2</v>
       </c>
     </row>
-    <row r="236" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A236" s="1">
         <v>43082</v>
       </c>
@@ -44926,7 +45110,7 @@
         <v>74.900000000000006</v>
       </c>
     </row>
-    <row r="237" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A237" s="1">
         <v>43083</v>
       </c>
@@ -44976,7 +45160,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="238" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A238" s="1">
         <v>43084</v>
       </c>
@@ -45026,7 +45210,7 @@
         <v>64.5</v>
       </c>
     </row>
-    <row r="239" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A239" s="1">
         <v>43087</v>
       </c>
@@ -45076,7 +45260,7 @@
         <v>65.8</v>
       </c>
     </row>
-    <row r="240" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A240" s="1">
         <v>43088</v>
       </c>
@@ -45126,7 +45310,7 @@
         <v>66.599999999999994</v>
       </c>
     </row>
-    <row r="241" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A241" s="1">
         <v>43089</v>
       </c>
@@ -45176,7 +45360,7 @@
         <v>66.900000000000006</v>
       </c>
     </row>
-    <row r="242" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A242" s="1">
         <v>43090</v>
       </c>
@@ -45226,7 +45410,7 @@
         <v>65.5</v>
       </c>
     </row>
-    <row r="243" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A243" s="1">
         <v>43091</v>
       </c>
@@ -45276,7 +45460,7 @@
         <v>67.400000000000006</v>
       </c>
     </row>
-    <row r="244" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A244" s="1">
         <v>43094</v>
       </c>
@@ -45326,7 +45510,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="245" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A245" s="1">
         <v>43095</v>
       </c>
@@ -45376,7 +45560,7 @@
         <v>68.400000000000006</v>
       </c>
     </row>
-    <row r="246" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A246" s="1">
         <v>43096</v>
       </c>
@@ -45426,7 +45610,7 @@
         <v>67.400000000000006</v>
       </c>
     </row>
-    <row r="247" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A247" s="1">
         <v>43097</v>
       </c>
@@ -45476,7 +45660,7 @@
         <v>58.2</v>
       </c>
     </row>
-    <row r="248" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A248" s="1">
         <v>43098</v>
       </c>
@@ -45526,7 +45710,7 @@
         <v>48.8</v>
       </c>
     </row>
-    <row r="249" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A249" s="1">
         <v>43104</v>
       </c>
@@ -45576,7 +45760,7 @@
         <v>59.4</v>
       </c>
     </row>
-    <row r="250" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A250" s="1">
         <v>43105</v>
       </c>
@@ -45626,7 +45810,7 @@
         <v>62.3</v>
       </c>
     </row>
-    <row r="251" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A251" s="1">
         <v>43109</v>
       </c>
@@ -45676,7 +45860,7 @@
         <v>63.8</v>
       </c>
     </row>
-    <row r="252" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A252" s="1">
         <v>43110</v>
       </c>
@@ -45726,7 +45910,7 @@
         <v>63.6</v>
       </c>
     </row>
-    <row r="253" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A253" s="1">
         <v>43111</v>
       </c>
@@ -45776,7 +45960,7 @@
         <v>62.9</v>
       </c>
     </row>
-    <row r="254" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A254" s="1">
         <v>43112</v>
       </c>
@@ -45826,7 +46010,7 @@
         <v>66.900000000000006</v>
       </c>
     </row>
-    <row r="255" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A255" s="1">
         <v>43115</v>
       </c>
@@ -45876,7 +46060,7 @@
         <v>78.3</v>
       </c>
     </row>
-    <row r="256" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A256" s="1">
         <v>43116</v>
       </c>
@@ -45926,7 +46110,7 @@
         <v>83.2</v>
       </c>
     </row>
-    <row r="257" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A257" s="1">
         <v>43117</v>
       </c>
@@ -45976,7 +46160,7 @@
         <v>83.5</v>
       </c>
     </row>
-    <row r="258" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A258" s="1">
         <v>43118</v>
       </c>
@@ -46026,7 +46210,7 @@
         <v>81.599999999999994</v>
       </c>
     </row>
-    <row r="259" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A259" s="1">
         <v>43119</v>
       </c>
@@ -46076,7 +46260,7 @@
         <v>79.900000000000006</v>
       </c>
     </row>
-    <row r="260" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A260" s="1">
         <v>43122</v>
       </c>
@@ -46126,7 +46310,7 @@
         <v>81.599999999999994</v>
       </c>
     </row>
-    <row r="261" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A261" s="1">
         <v>43123</v>
       </c>
@@ -46176,7 +46360,7 @@
         <v>83.8</v>
       </c>
     </row>
-    <row r="262" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A262" s="1">
         <v>43124</v>
       </c>
@@ -46226,7 +46410,7 @@
         <v>84.7</v>
       </c>
     </row>
-    <row r="263" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A263" s="1">
         <v>43125</v>
       </c>
@@ -46276,7 +46460,7 @@
         <v>75.5</v>
       </c>
     </row>
-    <row r="264" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A264" s="1">
         <v>43126</v>
       </c>
@@ -46326,7 +46510,7 @@
         <v>63.2</v>
       </c>
     </row>
-    <row r="265" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A265" s="1">
         <v>43129</v>
       </c>
@@ -46376,7 +46560,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="266" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A266" s="1">
         <v>43130</v>
       </c>
@@ -46426,7 +46610,7 @@
         <v>29.7</v>
       </c>
     </row>
-    <row r="267" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A267" s="1">
         <v>43131</v>
       </c>
@@ -46476,7 +46660,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="268" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A268" s="1">
         <v>43132</v>
       </c>
@@ -46526,7 +46710,7 @@
         <v>-16.2</v>
       </c>
     </row>
-    <row r="269" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A269" s="1">
         <v>43133</v>
       </c>
@@ -46576,7 +46760,7 @@
         <v>-43.2</v>
       </c>
     </row>
-    <row r="270" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A270" s="1">
         <v>43136</v>
       </c>
@@ -46626,7 +46810,7 @@
         <v>-60.9</v>
       </c>
     </row>
-    <row r="271" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A271" s="1">
         <v>43137</v>
       </c>
@@ -46676,7 +46860,7 @@
         <v>-70.099999999999994</v>
       </c>
     </row>
-    <row r="272" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A272" s="1">
         <v>43138</v>
       </c>
@@ -46726,7 +46910,7 @@
         <v>-74.2</v>
       </c>
     </row>
-    <row r="273" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A273" s="1">
         <v>43139</v>
       </c>
@@ -46776,7 +46960,7 @@
         <v>-79.400000000000006</v>
       </c>
     </row>
-    <row r="274" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A274" s="1">
         <v>43140</v>
       </c>
@@ -46826,7 +47010,7 @@
         <v>-85.1</v>
       </c>
     </row>
-    <row r="275" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A275" s="1">
         <v>43144</v>
       </c>
@@ -46876,7 +47060,7 @@
         <v>-90.9</v>
       </c>
     </row>
-    <row r="276" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A276" s="1">
         <v>43145</v>
       </c>
@@ -46926,7 +47110,7 @@
         <v>-94.5</v>
       </c>
     </row>
-    <row r="277" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A277" s="1">
         <v>43146</v>
       </c>
@@ -46976,7 +47160,7 @@
         <v>-94.4</v>
       </c>
     </row>
-    <row r="278" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A278" s="1">
         <v>43147</v>
       </c>
@@ -47026,7 +47210,7 @@
         <v>-92.6</v>
       </c>
     </row>
-    <row r="279" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A279" s="1">
         <v>43150</v>
       </c>
@@ -47076,7 +47260,7 @@
         <v>-89.2</v>
       </c>
     </row>
-    <row r="280" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A280" s="1">
         <v>43151</v>
       </c>
@@ -47126,7 +47310,7 @@
         <v>-84.3</v>
       </c>
     </row>
-    <row r="281" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A281" s="1">
         <v>43152</v>
       </c>
@@ -47176,7 +47360,7 @@
         <v>-77.8</v>
       </c>
     </row>
-    <row r="282" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A282" s="1">
         <v>43153</v>
       </c>
@@ -47226,7 +47410,7 @@
         <v>-71.2</v>
       </c>
     </row>
-    <row r="283" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A283" s="1">
         <v>43154</v>
       </c>
@@ -47276,7 +47460,7 @@
         <v>-62.2</v>
       </c>
     </row>
-    <row r="284" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A284" s="1">
         <v>43157</v>
       </c>
@@ -47326,7 +47510,7 @@
         <v>-50.4</v>
       </c>
     </row>
-    <row r="285" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A285" s="1">
         <v>43158</v>
       </c>
@@ -47376,7 +47560,7 @@
         <v>-36.799999999999997</v>
       </c>
     </row>
-    <row r="286" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A286" s="1">
         <v>43159</v>
       </c>
@@ -47426,7 +47610,7 @@
         <v>-22.5</v>
       </c>
     </row>
-    <row r="287" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A287" s="1">
         <v>43160</v>
       </c>
@@ -47476,7 +47660,7 @@
         <v>-11.6</v>
       </c>
     </row>
-    <row r="288" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A288" s="1">
         <v>43161</v>
       </c>
@@ -47526,7 +47710,7 @@
         <v>-10.4</v>
       </c>
     </row>
-    <row r="289" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A289" s="1">
         <v>43164</v>
       </c>
@@ -47576,7 +47760,7 @@
         <v>-10.4</v>
       </c>
     </row>
-    <row r="290" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A290" s="1">
         <v>43165</v>
       </c>
@@ -47626,7 +47810,7 @@
         <v>-4.2</v>
       </c>
     </row>
-    <row r="291" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A291" s="1">
         <v>43166</v>
       </c>
@@ -47676,7 +47860,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="292" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A292" s="1">
         <v>43167</v>
       </c>
@@ -47726,7 +47910,7 @@
         <v>-9.5</v>
       </c>
     </row>
-    <row r="293" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A293" s="1">
         <v>43168</v>
       </c>
@@ -47776,7 +47960,7 @@
         <v>-12.2</v>
       </c>
     </row>
-    <row r="294" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A294" s="1">
         <v>43171</v>
       </c>
@@ -47826,7 +48010,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="295" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A295" s="1">
         <v>43172</v>
       </c>
@@ -47876,7 +48060,7 @@
         <v>-3.1</v>
       </c>
     </row>
-    <row r="296" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A296" s="1">
         <v>43173</v>
       </c>
@@ -47926,7 +48110,7 @@
         <v>-12.1</v>
       </c>
     </row>
-    <row r="297" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A297" s="1">
         <v>43174</v>
       </c>
@@ -47976,7 +48160,7 @@
         <v>-24.2</v>
       </c>
     </row>
-    <row r="298" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A298" s="1">
         <v>43175</v>
       </c>
@@ -48026,7 +48210,7 @@
         <v>-37.1</v>
       </c>
     </row>
-    <row r="299" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A299" s="1">
         <v>43178</v>
       </c>
@@ -48076,7 +48260,7 @@
         <v>-45.5</v>
       </c>
     </row>
-    <row r="300" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A300" s="1">
         <v>43179</v>
       </c>
@@ -48126,7 +48310,7 @@
         <v>-41.7</v>
       </c>
     </row>
-    <row r="301" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A301" s="1">
         <v>43181</v>
       </c>
@@ -48176,7 +48360,7 @@
         <v>-37.1</v>
       </c>
     </row>
-    <row r="302" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A302" s="1">
         <v>43182</v>
       </c>
@@ -48226,7 +48410,7 @@
         <v>-38.700000000000003</v>
       </c>
     </row>
-    <row r="303" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A303" s="1">
         <v>43185</v>
       </c>
@@ -48276,7 +48460,7 @@
         <v>-46.9</v>
       </c>
     </row>
-    <row r="304" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A304" s="1">
         <v>43186</v>
       </c>
@@ -48326,7 +48510,7 @@
         <v>-43.1</v>
       </c>
     </row>
-    <row r="305" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A305" s="1">
         <v>43187</v>
       </c>
@@ -48376,7 +48560,7 @@
         <v>-42.6</v>
       </c>
     </row>
-    <row r="306" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A306" s="1">
         <v>43188</v>
       </c>
@@ -48426,7 +48610,7 @@
         <v>-39.4</v>
       </c>
     </row>
-    <row r="307" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A307" s="1">
         <v>43189</v>
       </c>
@@ -48476,7 +48660,7 @@
         <v>-25.5</v>
       </c>
     </row>
-    <row r="308" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A308" s="1">
         <v>43192</v>
       </c>
@@ -48526,7 +48710,7 @@
         <v>-16.899999999999999</v>
       </c>
     </row>
-    <row r="309" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A309" s="1">
         <v>43193</v>
       </c>
@@ -48576,7 +48760,7 @@
         <v>-28.2</v>
       </c>
     </row>
-    <row r="310" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A310" s="1">
         <v>43194</v>
       </c>
@@ -48626,7 +48810,7 @@
         <v>-43.4</v>
       </c>
     </row>
-    <row r="311" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A311" s="1">
         <v>43195</v>
       </c>
@@ -48676,7 +48860,7 @@
         <v>-34.9</v>
       </c>
     </row>
-    <row r="312" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A312" s="1">
         <v>43196</v>
       </c>
@@ -48726,7 +48910,7 @@
         <v>-40.1</v>
       </c>
     </row>
-    <row r="313" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A313" s="1">
         <v>43199</v>
       </c>
@@ -48776,7 +48960,7 @@
         <v>-36.9</v>
       </c>
     </row>
-    <row r="314" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A314" s="1">
         <v>43200</v>
       </c>
@@ -48826,7 +49010,7 @@
         <v>-28.1</v>
       </c>
     </row>
-    <row r="315" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A315" s="1">
         <v>43201</v>
       </c>
@@ -48876,7 +49060,7 @@
         <v>-8.4</v>
       </c>
     </row>
-    <row r="316" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A316" s="1">
         <v>43202</v>
       </c>
@@ -48926,7 +49110,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="317" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A317" s="1">
         <v>43203</v>
       </c>
@@ -48976,7 +49160,7 @@
         <v>32.5</v>
       </c>
     </row>
-    <row r="318" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A318" s="1">
         <v>43206</v>
       </c>
@@ -49026,7 +49210,7 @@
         <v>59.7</v>
       </c>
     </row>
-    <row r="319" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A319" s="1">
         <v>43207</v>
       </c>
@@ -49076,7 +49260,7 @@
         <v>75.7</v>
       </c>
     </row>
-    <row r="320" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A320" s="1">
         <v>43208</v>
       </c>
@@ -49126,7 +49310,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="321" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A321" s="1">
         <v>43209</v>
       </c>
@@ -49176,7 +49360,7 @@
         <v>89.1</v>
       </c>
     </row>
-    <row r="322" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A322" s="1">
         <v>43210</v>
       </c>
@@ -49226,7 +49410,7 @@
         <v>96.2</v>
       </c>
     </row>
-    <row r="323" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A323" s="1">
         <v>43213</v>
       </c>
@@ -49276,7 +49460,7 @@
         <v>95.5</v>
       </c>
     </row>
-    <row r="324" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A324" s="1">
         <v>43214</v>
       </c>
@@ -49326,7 +49510,7 @@
         <v>95.5</v>
       </c>
     </row>
-    <row r="325" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A325" s="1">
         <v>43215</v>
       </c>
@@ -49376,7 +49560,7 @@
         <v>96.4</v>
       </c>
     </row>
-    <row r="326" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A326" s="1">
         <v>43216</v>
       </c>
@@ -49426,7 +49610,7 @@
         <v>96.4</v>
       </c>
     </row>
-    <row r="327" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A327" s="1">
         <v>43217</v>
       </c>
@@ -49476,7 +49660,7 @@
         <v>96.4</v>
       </c>
     </row>
-    <row r="328" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A328" s="1">
         <v>43221</v>
       </c>
@@ -49526,7 +49710,7 @@
         <v>97.1</v>
       </c>
     </row>
-    <row r="329" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A329" s="1">
         <v>43222</v>
       </c>
@@ -49576,7 +49760,7 @@
         <v>97.4</v>
       </c>
     </row>
-    <row r="330" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A330" s="1">
         <v>43227</v>
       </c>
@@ -49626,7 +49810,7 @@
         <v>96.6</v>
       </c>
     </row>
-    <row r="331" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A331" s="1">
         <v>43228</v>
       </c>
@@ -49676,7 +49860,7 @@
         <v>96.6</v>
       </c>
     </row>
-    <row r="332" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A332" s="1">
         <v>43229</v>
       </c>
@@ -49726,7 +49910,7 @@
         <v>94.8</v>
       </c>
     </row>
-    <row r="333" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A333" s="1">
         <v>43230</v>
       </c>
@@ -49776,7 +49960,7 @@
         <v>93.9</v>
       </c>
     </row>
-    <row r="334" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A334" s="1">
         <v>43231</v>
       </c>
@@ -49826,7 +50010,7 @@
         <v>94.3</v>
       </c>
     </row>
-    <row r="335" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A335" s="1">
         <v>43234</v>
       </c>
@@ -49876,7 +50060,7 @@
         <v>95.1</v>
       </c>
     </row>
-    <row r="336" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A336" s="1">
         <v>43235</v>
       </c>
@@ -49926,7 +50110,7 @@
         <v>95.1</v>
       </c>
     </row>
-    <row r="337" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A337" s="1">
         <v>43236</v>
       </c>
@@ -49976,7 +50160,7 @@
         <v>94.3</v>
       </c>
     </row>
-    <row r="338" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A338" s="1">
         <v>43237</v>
       </c>
@@ -50026,7 +50210,7 @@
         <v>93.9</v>
       </c>
     </row>
-    <row r="339" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A339" s="1">
         <v>43238</v>
       </c>
@@ -50076,7 +50260,7 @@
         <v>93.9</v>
       </c>
     </row>
-    <row r="340" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A340" s="1">
         <v>43241</v>
       </c>
@@ -50126,7 +50310,7 @@
         <v>93.9</v>
       </c>
     </row>
-    <row r="341" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A341" s="1">
         <v>43242</v>
       </c>
@@ -50176,7 +50360,7 @@
         <v>94.2</v>
       </c>
     </row>
-    <row r="342" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A342" s="1">
         <v>43243</v>
       </c>
@@ -50226,7 +50410,7 @@
         <v>89.9</v>
       </c>
     </row>
-    <row r="343" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A343" s="1">
         <v>43244</v>
       </c>
@@ -50276,7 +50460,7 @@
         <v>73.8</v>
       </c>
     </row>
-    <row r="344" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A344" s="1">
         <v>43245</v>
       </c>
@@ -50326,7 +50510,7 @@
         <v>55.6</v>
       </c>
     </row>
-    <row r="345" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A345" s="1">
         <v>43248</v>
       </c>
@@ -50376,7 +50560,7 @@
         <v>41.9</v>
       </c>
     </row>
-    <row r="346" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A346" s="1">
         <v>43249</v>
       </c>
@@ -50426,7 +50610,7 @@
         <v>17.3</v>
       </c>
     </row>
-    <row r="347" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A347" s="1">
         <v>43250</v>
       </c>
@@ -50476,7 +50660,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="348" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A348" s="1">
         <v>43251</v>
       </c>
@@ -50526,7 +50710,7 @@
         <v>-26.8</v>
       </c>
     </row>
-    <row r="349" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A349" s="1">
         <v>43252</v>
       </c>
@@ -50576,7 +50760,7 @@
         <v>-38.6</v>
       </c>
     </row>
-    <row r="350" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A350" s="1">
         <v>43255</v>
       </c>
@@ -50626,7 +50810,7 @@
         <v>-44</v>
       </c>
     </row>
-    <row r="351" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A351" s="1">
         <v>43256</v>
       </c>
@@ -50676,7 +50860,7 @@
         <v>-46.4</v>
       </c>
     </row>
-    <row r="352" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A352" s="1">
         <v>43257</v>
       </c>
@@ -50726,7 +50910,7 @@
         <v>-46.2</v>
       </c>
     </row>
-    <row r="353" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A353" s="1">
         <v>43258</v>
       </c>
@@ -50776,7 +50960,7 @@
         <v>-47.5</v>
       </c>
     </row>
-    <row r="354" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A354" s="1">
         <v>43259</v>
       </c>
@@ -50826,7 +51010,7 @@
         <v>-50.8</v>
       </c>
     </row>
-    <row r="355" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A355" s="1">
         <v>43262</v>
       </c>
@@ -50876,7 +51060,7 @@
         <v>-42.6</v>
       </c>
     </row>
-    <row r="356" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A356" s="1">
         <v>43263</v>
       </c>
@@ -50926,7 +51110,7 @@
         <v>-23.5</v>
       </c>
     </row>
-    <row r="357" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A357" s="1">
         <v>43264</v>
       </c>
@@ -50976,7 +51160,7 @@
         <v>-5.0999999999999996</v>
       </c>
     </row>
-    <row r="358" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A358" s="1">
         <v>43265</v>
       </c>
@@ -51026,7 +51210,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="359" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A359" s="1">
         <v>43266</v>
       </c>
@@ -51076,7 +51260,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="360" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A360" s="1">
         <v>43269</v>
       </c>
@@ -51126,7 +51310,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="361" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A361" s="1">
         <v>43270</v>
       </c>
@@ -51176,7 +51360,7 @@
         <v>32.6</v>
       </c>
     </row>
-    <row r="362" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A362" s="1">
         <v>43271</v>
       </c>
@@ -51226,7 +51410,7 @@
         <v>48.2</v>
       </c>
     </row>
-    <row r="363" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A363" s="1">
         <v>43272</v>
       </c>
@@ -51276,7 +51460,7 @@
         <v>56.4</v>
       </c>
     </row>
-    <row r="364" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A364" s="1">
         <v>43273</v>
       </c>
@@ -51326,7 +51510,7 @@
         <v>49.6</v>
       </c>
     </row>
-    <row r="365" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A365" s="1">
         <v>43276</v>
       </c>
@@ -51376,7 +51560,7 @@
         <v>33.5</v>
       </c>
     </row>
-    <row r="366" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A366" s="1">
         <v>43277</v>
       </c>
@@ -51426,7 +51610,7 @@
         <v>20.6</v>
       </c>
     </row>
-    <row r="367" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A367" s="1">
         <v>43278</v>
       </c>
@@ -51476,7 +51660,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="368" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A368" s="1">
         <v>43279</v>
       </c>
@@ -51526,7 +51710,7 @@
         <v>-13.6</v>
       </c>
     </row>
-    <row r="369" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A369" s="1">
         <v>43280</v>
       </c>
@@ -51576,7 +51760,7 @@
         <v>-36.799999999999997</v>
       </c>
     </row>
-    <row r="370" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A370" s="1">
         <v>43283</v>
       </c>
@@ -51626,7 +51810,7 @@
         <v>-64</v>
       </c>
     </row>
-    <row r="371" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A371" s="1">
         <v>43284</v>
       </c>
@@ -51676,7 +51860,7 @@
         <v>-76.2</v>
       </c>
     </row>
-    <row r="372" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A372" s="1">
         <v>43285</v>
       </c>
@@ -51726,7 +51910,7 @@
         <v>-85.1</v>
       </c>
     </row>
-    <row r="373" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A373" s="1">
         <v>43286</v>
       </c>
@@ -51776,7 +51960,7 @@
         <v>-91.2</v>
       </c>
     </row>
-    <row r="374" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A374" s="1">
         <v>43287</v>
       </c>
@@ -51826,7 +52010,7 @@
         <v>-92.1</v>
       </c>
     </row>
-    <row r="375" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A375" s="1">
         <v>43290</v>
       </c>
@@ -51876,7 +52060,7 @@
         <v>-92.1</v>
       </c>
     </row>
-    <row r="376" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A376" s="1">
         <v>43291</v>
       </c>
@@ -51926,7 +52110,7 @@
         <v>-90.3</v>
       </c>
     </row>
-    <row r="377" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A377" s="1">
         <v>43292</v>
       </c>
@@ -51976,7 +52160,7 @@
         <v>-87.1</v>
       </c>
     </row>
-    <row r="378" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A378" s="1">
         <v>43293</v>
       </c>
@@ -52026,7 +52210,7 @@
         <v>-82.7</v>
       </c>
     </row>
-    <row r="379" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A379" s="1">
         <v>43294</v>
       </c>
@@ -52076,7 +52260,7 @@
         <v>-62.7</v>
       </c>
     </row>
-    <row r="380" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A380" s="1">
         <v>43298</v>
       </c>
@@ -52126,7 +52310,7 @@
         <v>-35.5</v>
       </c>
     </row>
-    <row r="381" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A381" s="1">
         <v>43299</v>
       </c>
@@ -52176,7 +52360,7 @@
         <v>-11.2</v>
       </c>
     </row>
-    <row r="382" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A382" s="1">
         <v>43300</v>
       </c>
@@ -52226,7 +52410,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="383" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A383" s="1">
         <v>43301</v>
       </c>
@@ -52276,7 +52460,7 @@
         <v>22.7</v>
       </c>
     </row>
-    <row r="384" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A384" s="1">
         <v>43304</v>
       </c>
@@ -52326,7 +52510,7 @@
         <v>35.799999999999997</v>
       </c>
     </row>
-    <row r="385" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A385" s="1">
         <v>43305</v>
       </c>
@@ -52376,7 +52560,7 @@
         <v>49.5</v>
       </c>
     </row>
-    <row r="386" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A386" s="1">
         <v>43306</v>
       </c>
@@ -52426,7 +52610,7 @@
         <v>58.8</v>
       </c>
     </row>
-    <row r="387" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A387" s="1">
         <v>43307</v>
       </c>
@@ -52476,7 +52660,7 @@
         <v>64.900000000000006</v>
       </c>
     </row>
-    <row r="388" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A388" s="1">
         <v>43308</v>
       </c>
@@ -52526,7 +52710,7 @@
         <v>71.599999999999994</v>
       </c>
     </row>
-    <row r="389" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A389" s="1">
         <v>43311</v>
       </c>
@@ -52576,7 +52760,7 @@
         <v>72.599999999999994</v>
       </c>
     </row>
-    <row r="390" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A390" s="1">
         <v>43312</v>
       </c>
@@ -52626,7 +52810,7 @@
         <v>71.400000000000006</v>
       </c>
     </row>
-    <row r="391" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A391" s="1">
         <v>43313</v>
       </c>
@@ -52676,7 +52860,7 @@
         <v>70.3</v>
       </c>
     </row>
-    <row r="392" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A392" s="1">
         <v>43314</v>
       </c>
@@ -52726,7 +52910,7 @@
         <v>60.8</v>
       </c>
     </row>
-    <row r="393" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A393" s="1">
         <v>43315</v>
       </c>
@@ -52776,7 +52960,7 @@
         <v>49.6</v>
       </c>
     </row>
-    <row r="394" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A394" s="1">
         <v>43318</v>
       </c>
@@ -52826,7 +53010,7 @@
         <v>35.299999999999997</v>
       </c>
     </row>
-    <row r="395" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A395" s="1">
         <v>43319</v>
       </c>
@@ -52876,7 +53060,7 @@
         <v>26.9</v>
       </c>
     </row>
-    <row r="396" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A396" s="1">
         <v>43320</v>
       </c>
@@ -52926,7 +53110,7 @@
         <v>17.8</v>
       </c>
     </row>
-    <row r="397" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A397" s="1">
         <v>43321</v>
       </c>
@@ -52976,7 +53160,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="398" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A398" s="1">
         <v>43322</v>
       </c>
@@ -53026,7 +53210,7 @@
         <v>-18.3</v>
       </c>
     </row>
-    <row r="399" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A399" s="1">
         <v>43325</v>
       </c>
@@ -53076,7 +53260,7 @@
         <v>-45.6</v>
       </c>
     </row>
-    <row r="400" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A400" s="1">
         <v>43326</v>
       </c>
@@ -53126,7 +53310,7 @@
         <v>-56.8</v>
       </c>
     </row>
-    <row r="401" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A401" s="1">
         <v>43327</v>
       </c>
@@ -53176,7 +53360,7 @@
         <v>-59.7</v>
       </c>
     </row>
-    <row r="402" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A402" s="1">
         <v>43328</v>
       </c>
@@ -53226,7 +53410,7 @@
         <v>-59.4</v>
       </c>
     </row>
-    <row r="403" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A403" s="1">
         <v>43329</v>
       </c>
@@ -53291,18 +53475,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.15">
       <c r="L5" s="2"/>
     </row>
   </sheetData>
